--- a/models/ATT2ITM/restaurants/gijon/a7d13fba1b49c2cc4ea27a987a38b31f/att_text.xlsx
+++ b/models/ATT2ITM/restaurants/gijon/a7d13fba1b49c2cc4ea27a987a38b31f/att_text.xlsx
@@ -926,34 +926,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0858154296875</v>
+        <v>0.038238525390625</v>
       </c>
       <c r="C3">
-        <v>0.0238800048828125</v>
+        <v>0.056304931640625</v>
       </c>
       <c r="D3">
-        <v>0.0034332275390625</v>
+        <v>0.01488494873046875</v>
       </c>
       <c r="E3">
-        <v>0.26220703125</v>
+        <v>-0.11785888671875</v>
       </c>
       <c r="F3">
-        <v>0.01275634765625</v>
+        <v>-0.0275421142578125</v>
       </c>
       <c r="G3">
-        <v>-0.79052734375</v>
+        <v>-0.9482421875</v>
       </c>
       <c r="H3">
-        <v>0.002925872802734375</v>
+        <v>0.034576416015625</v>
       </c>
       <c r="I3">
-        <v>0.01275634765625</v>
+        <v>-0.0275421142578125</v>
       </c>
       <c r="J3">
-        <v>0.07843017578125</v>
+        <v>0.10638427734375</v>
       </c>
       <c r="K3">
-        <v>0.20751953125</v>
+        <v>0.451171875</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -961,34 +961,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04742431640625</v>
+        <v>0.11944580078125</v>
       </c>
       <c r="C4">
-        <v>-0.01317596435546875</v>
+        <v>-0.1473388671875</v>
       </c>
       <c r="D4">
-        <v>0.003536224365234375</v>
+        <v>0.08074951171875</v>
       </c>
       <c r="E4">
-        <v>0.1578369140625</v>
+        <v>-0.2685546875</v>
       </c>
       <c r="F4">
-        <v>0.002593994140625</v>
+        <v>0.0233306884765625</v>
       </c>
       <c r="G4">
-        <v>-0.09735107421875</v>
+        <v>-0.9619140625</v>
       </c>
       <c r="H4">
-        <v>-0.0039825439453125</v>
+        <v>-0.08935546875</v>
       </c>
       <c r="I4">
-        <v>0.002593994140625</v>
+        <v>0.0233306884765625</v>
       </c>
       <c r="J4">
-        <v>0.0163421630859375</v>
+        <v>-0.038421630859375</v>
       </c>
       <c r="K4">
-        <v>-0.798828125</v>
+        <v>-0.90087890625</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -996,34 +996,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0616455078125</v>
+        <v>-0.09588623046875</v>
       </c>
       <c r="C5">
-        <v>-0.001074790954589844</v>
+        <v>-0.01849365234375</v>
       </c>
       <c r="D5">
-        <v>0.0166473388671875</v>
+        <v>-0.052276611328125</v>
       </c>
       <c r="E5">
-        <v>0.11517333984375</v>
+        <v>0.5205078125</v>
       </c>
       <c r="F5">
-        <v>0.0222930908203125</v>
+        <v>0.06005859375</v>
       </c>
       <c r="G5">
-        <v>-0.80517578125</v>
+        <v>-0.8154296875</v>
       </c>
       <c r="H5">
-        <v>-0.005268096923828125</v>
+        <v>0.01024627685546875</v>
       </c>
       <c r="I5">
-        <v>0.0222930908203125</v>
+        <v>0.06005859375</v>
       </c>
       <c r="J5">
-        <v>0.026397705078125</v>
+        <v>0.03021240234375</v>
       </c>
       <c r="K5">
-        <v>0.282958984375</v>
+        <v>0.36328125</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1031,34 +1031,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005523681640625</v>
+        <v>-0.35498046875</v>
       </c>
       <c r="C6">
-        <v>0.0164031982421875</v>
+        <v>0.10076904296875</v>
       </c>
       <c r="D6">
-        <v>-0.0007472038269042969</v>
+        <v>-0.0061798095703125</v>
       </c>
       <c r="E6">
-        <v>-0.120849609375</v>
+        <v>-0.84765625</v>
       </c>
       <c r="F6">
-        <v>-0.01047515869140625</v>
+        <v>-0.1348876953125</v>
       </c>
       <c r="G6">
-        <v>-0.802734375</v>
+        <v>-0.97802734375</v>
       </c>
       <c r="H6">
-        <v>0.002071380615234375</v>
+        <v>-0.0457763671875</v>
       </c>
       <c r="I6">
-        <v>-0.01047515869140625</v>
+        <v>-0.1348876953125</v>
       </c>
       <c r="J6">
-        <v>0.031982421875</v>
+        <v>-0.0465087890625</v>
       </c>
       <c r="K6">
-        <v>0.192626953125</v>
+        <v>0.80908203125</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1066,34 +1066,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.006343841552734375</v>
+        <v>-0.2315673828125</v>
       </c>
       <c r="C7">
-        <v>0.045806884765625</v>
+        <v>-0.140380859375</v>
       </c>
       <c r="D7">
-        <v>-0.00711822509765625</v>
+        <v>0.12445068359375</v>
       </c>
       <c r="E7">
-        <v>-0.2034912109375</v>
+        <v>0.6796875</v>
       </c>
       <c r="F7">
-        <v>-0.061309814453125</v>
+        <v>0.0110931396484375</v>
       </c>
       <c r="G7">
-        <v>-0.912109375</v>
+        <v>-0.6337890625</v>
       </c>
       <c r="H7">
-        <v>-0.01082611083984375</v>
+        <v>-0.1220703125</v>
       </c>
       <c r="I7">
-        <v>-0.061309814453125</v>
+        <v>0.0110931396484375</v>
       </c>
       <c r="J7">
-        <v>-0.0225830078125</v>
+        <v>0.0200042724609375</v>
       </c>
       <c r="K7">
-        <v>-0.87939453125</v>
+        <v>-0.70458984375</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1101,34 +1101,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0941162109375</v>
+        <v>0.255615234375</v>
       </c>
       <c r="C8">
-        <v>0.086669921875</v>
+        <v>0.022369384765625</v>
       </c>
       <c r="D8">
-        <v>-0.0087432861328125</v>
+        <v>0.0203399658203125</v>
       </c>
       <c r="E8">
-        <v>0.1517333984375</v>
+        <v>0.242919921875</v>
       </c>
       <c r="F8">
-        <v>-0.0765380859375</v>
+        <v>-0.12890625</v>
       </c>
       <c r="G8">
-        <v>0.64794921875</v>
+        <v>0.69189453125</v>
       </c>
       <c r="H8">
-        <v>-0.0226287841796875</v>
+        <v>-0.12255859375</v>
       </c>
       <c r="I8">
-        <v>-0.0765380859375</v>
+        <v>-0.12890625</v>
       </c>
       <c r="J8">
-        <v>-0.06353759765625</v>
+        <v>-0.49072265625</v>
       </c>
       <c r="K8">
-        <v>-0.85546875</v>
+        <v>-0.9853515625</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1136,34 +1136,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.0091400146484375</v>
+        <v>-0.2279052734375</v>
       </c>
       <c r="C9">
-        <v>0.053436279296875</v>
+        <v>-0.1016845703125</v>
       </c>
       <c r="D9">
-        <v>-0.0115509033203125</v>
+        <v>0.0823974609375</v>
       </c>
       <c r="E9">
-        <v>-0.253173828125</v>
+        <v>-0.470947265625</v>
       </c>
       <c r="F9">
-        <v>-0.03546142578125</v>
+        <v>0.2098388671875</v>
       </c>
       <c r="G9">
-        <v>-0.9013671875</v>
+        <v>-0.76953125</v>
       </c>
       <c r="H9">
-        <v>-0.0006604194641113281</v>
+        <v>0.03192138671875</v>
       </c>
       <c r="I9">
-        <v>-0.03546142578125</v>
+        <v>0.2098388671875</v>
       </c>
       <c r="J9">
-        <v>-0.05242919921875</v>
+        <v>-0.2548828125</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>-0.93017578125</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1171,34 +1171,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0003750324249267578</v>
+        <v>-0.171142578125</v>
       </c>
       <c r="C10">
-        <v>-0.001001358032226562</v>
+        <v>-0.035125732421875</v>
       </c>
       <c r="D10">
-        <v>0.005771636962890625</v>
+        <v>0.0092926025390625</v>
       </c>
       <c r="E10">
-        <v>-0.0789794921875</v>
+        <v>-0.0477294921875</v>
       </c>
       <c r="F10">
-        <v>-0.00211334228515625</v>
+        <v>0.059967041015625</v>
       </c>
       <c r="G10">
-        <v>0.04864501953125</v>
+        <v>0.1265869140625</v>
       </c>
       <c r="H10">
-        <v>-0.0098419189453125</v>
+        <v>0.002149581909179688</v>
       </c>
       <c r="I10">
-        <v>-0.00211334228515625</v>
+        <v>0.059967041015625</v>
       </c>
       <c r="J10">
-        <v>-0.061553955078125</v>
+        <v>0.1798095703125</v>
       </c>
       <c r="K10">
-        <v>-0.328125</v>
+        <v>-0.814453125</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1206,34 +1206,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.05084228515625</v>
+        <v>-0.0645751953125</v>
       </c>
       <c r="C11">
-        <v>0.07391357421875</v>
+        <v>0.079833984375</v>
       </c>
       <c r="D11">
-        <v>0.003772735595703125</v>
+        <v>-0.007312774658203125</v>
       </c>
       <c r="E11">
-        <v>-0.21142578125</v>
+        <v>-0.298583984375</v>
       </c>
       <c r="F11">
-        <v>-0.0394287109375</v>
+        <v>-0.00768280029296875</v>
       </c>
       <c r="G11">
-        <v>-0.99951171875</v>
+        <v>-0.92724609375</v>
       </c>
       <c r="H11">
-        <v>-0.029144287109375</v>
+        <v>0.0167083740234375</v>
       </c>
       <c r="I11">
-        <v>-0.0394287109375</v>
+        <v>-0.00768280029296875</v>
       </c>
       <c r="J11">
-        <v>-0.09515380859375</v>
+        <v>0.007717132568359375</v>
       </c>
       <c r="K11">
-        <v>0.428466796875</v>
+        <v>0.45751953125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1241,34 +1241,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06982421875</v>
+        <v>0.237548828125</v>
       </c>
       <c r="C12">
-        <v>-0.047943115234375</v>
+        <v>-0.0650634765625</v>
       </c>
       <c r="D12">
-        <v>0.00643157958984375</v>
+        <v>0.043731689453125</v>
       </c>
       <c r="E12">
-        <v>0.269775390625</v>
+        <v>-0.10504150390625</v>
       </c>
       <c r="F12">
-        <v>-0.0236968994140625</v>
+        <v>0.07696533203125</v>
       </c>
       <c r="G12">
-        <v>0.68994140625</v>
+        <v>-0.75830078125</v>
       </c>
       <c r="H12">
-        <v>-0.0123443603515625</v>
+        <v>-0.0205841064453125</v>
       </c>
       <c r="I12">
-        <v>-0.0236968994140625</v>
+        <v>0.07696533203125</v>
       </c>
       <c r="J12">
-        <v>0.0205078125</v>
+        <v>0.345947265625</v>
       </c>
       <c r="K12">
-        <v>-0.998046875</v>
+        <v>-0.94091796875</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1276,34 +1276,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.055328369140625</v>
+        <v>0.53759765625</v>
       </c>
       <c r="C13">
-        <v>-0.12103271484375</v>
+        <v>-0.0679931640625</v>
       </c>
       <c r="D13">
-        <v>0.046051025390625</v>
+        <v>0.05938720703125</v>
       </c>
       <c r="E13">
-        <v>-0.58544921875</v>
+        <v>-0.71630859375</v>
       </c>
       <c r="F13">
-        <v>-0.08282470703125</v>
+        <v>-0.1807861328125</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>-0.9970703125</v>
       </c>
       <c r="H13">
-        <v>-0.0154876708984375</v>
+        <v>0.033050537109375</v>
       </c>
       <c r="I13">
-        <v>-0.08282470703125</v>
+        <v>-0.1807861328125</v>
       </c>
       <c r="J13">
-        <v>0.470947265625</v>
+        <v>0.386474609375</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>-0.1392822265625</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1311,34 +1311,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0168304443359375</v>
+        <v>-0.09527587890625</v>
       </c>
       <c r="C14">
-        <v>0.005535125732421875</v>
+        <v>-0.0266571044921875</v>
       </c>
       <c r="D14">
-        <v>0.006916046142578125</v>
+        <v>0.05743408203125</v>
       </c>
       <c r="E14">
-        <v>-0.288330078125</v>
+        <v>0.326416015625</v>
       </c>
       <c r="F14">
-        <v>-0.0001535415649414062</v>
+        <v>-0.045196533203125</v>
       </c>
       <c r="G14">
-        <v>-0.95849609375</v>
+        <v>-0.541015625</v>
       </c>
       <c r="H14">
-        <v>-0.0051727294921875</v>
+        <v>-0.019805908203125</v>
       </c>
       <c r="I14">
-        <v>-0.0001535415649414062</v>
+        <v>-0.045196533203125</v>
       </c>
       <c r="J14">
-        <v>-0.018157958984375</v>
+        <v>0.3828125</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.9453125</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1346,34 +1346,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1771240234375</v>
+        <v>0.322998046875</v>
       </c>
       <c r="C15">
-        <v>0.0265655517578125</v>
+        <v>-0.1337890625</v>
       </c>
       <c r="D15">
-        <v>0.003192901611328125</v>
+        <v>0.08544921875</v>
       </c>
       <c r="E15">
-        <v>0.298828125</v>
+        <v>0.1007080078125</v>
       </c>
       <c r="F15">
-        <v>-0.03411865234375</v>
+        <v>-0.055755615234375</v>
       </c>
       <c r="G15">
-        <v>-0.01209259033203125</v>
+        <v>0.63427734375</v>
       </c>
       <c r="H15">
-        <v>-0.0312042236328125</v>
+        <v>-0.03778076171875</v>
       </c>
       <c r="I15">
-        <v>-0.03411865234375</v>
+        <v>-0.055755615234375</v>
       </c>
       <c r="J15">
-        <v>-0.0880126953125</v>
+        <v>-0.07586669921875</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>-0.865234375</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1381,34 +1381,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03924560546875</v>
+        <v>0.018096923828125</v>
       </c>
       <c r="C16">
-        <v>0.025115966796875</v>
+        <v>0.1346435546875</v>
       </c>
       <c r="D16">
-        <v>-0.0006566047668457031</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E16">
-        <v>-0.173828125</v>
+        <v>-0.69580078125</v>
       </c>
       <c r="F16">
-        <v>-0.046630859375</v>
+        <v>-0.0772705078125</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>-0.99365234375</v>
       </c>
       <c r="H16">
-        <v>0.01438140869140625</v>
+        <v>-0.00632476806640625</v>
       </c>
       <c r="I16">
-        <v>-0.046630859375</v>
+        <v>-0.0772705078125</v>
       </c>
       <c r="J16">
-        <v>0.28076171875</v>
+        <v>0.301025390625</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>0.2236328125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1416,34 +1416,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.056976318359375</v>
+        <v>0.215087890625</v>
       </c>
       <c r="C17">
-        <v>0.09173583984375</v>
+        <v>0.11083984375</v>
       </c>
       <c r="D17">
-        <v>-0.017120361328125</v>
+        <v>-0.019775390625</v>
       </c>
       <c r="E17">
-        <v>-0.07000732421875</v>
+        <v>-0.59619140625</v>
       </c>
       <c r="F17">
-        <v>-0.049530029296875</v>
+        <v>-0.2232666015625</v>
       </c>
       <c r="G17">
-        <v>-0.2388916015625</v>
+        <v>0.595703125</v>
       </c>
       <c r="H17">
-        <v>0.005146026611328125</v>
+        <v>-0.0423583984375</v>
       </c>
       <c r="I17">
-        <v>-0.049530029296875</v>
+        <v>-0.2232666015625</v>
       </c>
       <c r="J17">
-        <v>0.0347900390625</v>
+        <v>-0.159423828125</v>
       </c>
       <c r="K17">
-        <v>-0.9169921875</v>
+        <v>-0.859375</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1451,34 +1451,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1068115234375</v>
+        <v>0.138916015625</v>
       </c>
       <c r="C18">
-        <v>-0.1497802734375</v>
+        <v>-0.09814453125</v>
       </c>
       <c r="D18">
-        <v>0.061370849609375</v>
+        <v>0.13232421875</v>
       </c>
       <c r="E18">
-        <v>0.294677734375</v>
+        <v>-0.231201171875</v>
       </c>
       <c r="F18">
-        <v>-0.017608642578125</v>
+        <v>-0.002973556518554688</v>
       </c>
       <c r="G18">
-        <v>-0.99951171875</v>
+        <v>-0.978515625</v>
       </c>
       <c r="H18">
-        <v>-0.06378173828125</v>
+        <v>-0.1060791015625</v>
       </c>
       <c r="I18">
-        <v>-0.017608642578125</v>
+        <v>-0.002973556518554688</v>
       </c>
       <c r="J18">
-        <v>-0.014251708984375</v>
+        <v>-0.4384765625</v>
       </c>
       <c r="K18">
-        <v>0.223388671875</v>
+        <v>0.49365234375</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1486,34 +1486,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.12158203125</v>
+        <v>0.357177734375</v>
       </c>
       <c r="C19">
-        <v>0.04058837890625</v>
+        <v>0.061065673828125</v>
       </c>
       <c r="D19">
-        <v>0.026947021484375</v>
+        <v>0.07452392578125</v>
       </c>
       <c r="E19">
-        <v>0.4794921875</v>
+        <v>0.5703125</v>
       </c>
       <c r="F19">
-        <v>-0.057586669921875</v>
+        <v>-0.069091796875</v>
       </c>
       <c r="G19">
-        <v>0.9619140625</v>
+        <v>0.92333984375</v>
       </c>
       <c r="H19">
-        <v>-0.053131103515625</v>
+        <v>-0.0268096923828125</v>
       </c>
       <c r="I19">
-        <v>-0.057586669921875</v>
+        <v>-0.069091796875</v>
       </c>
       <c r="J19">
-        <v>-0.1268310546875</v>
+        <v>0.1851806640625</v>
       </c>
       <c r="K19">
-        <v>0.9990234375</v>
+        <v>0.84765625</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1521,34 +1521,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1800537109375</v>
+        <v>-0.1298828125</v>
       </c>
       <c r="C20">
-        <v>-0.062469482421875</v>
+        <v>-0.1044921875</v>
       </c>
       <c r="D20">
-        <v>0.0443115234375</v>
+        <v>0.08477783203125</v>
       </c>
       <c r="E20">
-        <v>0.32080078125</v>
+        <v>-0.73388671875</v>
       </c>
       <c r="F20">
-        <v>-0.031097412109375</v>
+        <v>-5.930662155151367E-05</v>
       </c>
       <c r="G20">
-        <v>-0.505859375</v>
+        <v>-0.51904296875</v>
       </c>
       <c r="H20">
-        <v>-0.06134033203125</v>
+        <v>-0.0219268798828125</v>
       </c>
       <c r="I20">
-        <v>-0.031097412109375</v>
+        <v>-5.930662155151367E-05</v>
       </c>
       <c r="J20">
-        <v>-0.047760009765625</v>
+        <v>0.06756591796875</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.82666015625</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1556,34 +1556,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0926513671875</v>
+        <v>0.3857421875</v>
       </c>
       <c r="C21">
-        <v>-0.08831787109375</v>
+        <v>-0.17431640625</v>
       </c>
       <c r="D21">
-        <v>-0.0091094970703125</v>
+        <v>0.0648193359375</v>
       </c>
       <c r="E21">
-        <v>0.12353515625</v>
+        <v>-0.517578125</v>
       </c>
       <c r="F21">
-        <v>-0.06268310546875</v>
+        <v>-0.142333984375</v>
       </c>
       <c r="G21">
-        <v>-0.56591796875</v>
+        <v>-0.41015625</v>
       </c>
       <c r="H21">
-        <v>-0.00835418701171875</v>
+        <v>-0.0648193359375</v>
       </c>
       <c r="I21">
-        <v>-0.06268310546875</v>
+        <v>-0.142333984375</v>
       </c>
       <c r="J21">
-        <v>0.02142333984375</v>
+        <v>-0.08038330078125</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>-0.94775390625</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1591,34 +1591,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.00988006591796875</v>
+        <v>-0.2076416015625</v>
       </c>
       <c r="C22">
-        <v>0.017822265625</v>
+        <v>0.218994140625</v>
       </c>
       <c r="D22">
-        <v>-0.001745223999023438</v>
+        <v>0.0164642333984375</v>
       </c>
       <c r="E22">
-        <v>-0.2110595703125</v>
+        <v>-0.346923828125</v>
       </c>
       <c r="F22">
-        <v>-0.019439697265625</v>
+        <v>-0.03802490234375</v>
       </c>
       <c r="G22">
-        <v>-0.88232421875</v>
+        <v>-0.95751953125</v>
       </c>
       <c r="H22">
-        <v>-0.006763458251953125</v>
+        <v>-0.00635528564453125</v>
       </c>
       <c r="I22">
-        <v>-0.019439697265625</v>
+        <v>-0.03802490234375</v>
       </c>
       <c r="J22">
-        <v>-0.049285888671875</v>
+        <v>-0.4404296875</v>
       </c>
       <c r="K22">
-        <v>-0.98193359375</v>
+        <v>-0.7021484375</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1626,34 +1626,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.004802703857421875</v>
+        <v>0.30810546875</v>
       </c>
       <c r="C23">
-        <v>0.0161895751953125</v>
+        <v>0.071533203125</v>
       </c>
       <c r="D23">
-        <v>0.001235008239746094</v>
+        <v>0.06646728515625</v>
       </c>
       <c r="E23">
-        <v>-0.2333984375</v>
+        <v>-0.04498291015625</v>
       </c>
       <c r="F23">
-        <v>-0.01390838623046875</v>
+        <v>-0.041839599609375</v>
       </c>
       <c r="G23">
-        <v>-0.72265625</v>
+        <v>-0.9052734375</v>
       </c>
       <c r="H23">
-        <v>-0.01059722900390625</v>
+        <v>0.029388427734375</v>
       </c>
       <c r="I23">
-        <v>-0.01390838623046875</v>
+        <v>-0.041839599609375</v>
       </c>
       <c r="J23">
-        <v>-0.0791015625</v>
+        <v>0.0958251953125</v>
       </c>
       <c r="K23">
-        <v>-0.92529296875</v>
+        <v>-0.8349609375</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1661,34 +1661,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.04083251953125</v>
+        <v>-0.332763671875</v>
       </c>
       <c r="C24">
-        <v>-0.01561737060546875</v>
+        <v>0.06719970703125</v>
       </c>
       <c r="D24">
-        <v>0.0171356201171875</v>
+        <v>0.0330810546875</v>
       </c>
       <c r="E24">
-        <v>0.10382080078125</v>
+        <v>-0.10992431640625</v>
       </c>
       <c r="F24">
-        <v>0.01155853271484375</v>
+        <v>0.06671142578125</v>
       </c>
       <c r="G24">
-        <v>0.251953125</v>
+        <v>0.444091796875</v>
       </c>
       <c r="H24">
-        <v>-0.01277923583984375</v>
+        <v>-0.156005859375</v>
       </c>
       <c r="I24">
-        <v>0.01155853271484375</v>
+        <v>0.06671142578125</v>
       </c>
       <c r="J24">
-        <v>-0.01329803466796875</v>
+        <v>0.06964111328125</v>
       </c>
       <c r="K24">
-        <v>0.98583984375</v>
+        <v>0.98388671875</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1696,34 +1696,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01467132568359375</v>
+        <v>-0.0304107666015625</v>
       </c>
       <c r="C25">
-        <v>0.021148681640625</v>
+        <v>-0.0265655517578125</v>
       </c>
       <c r="D25">
-        <v>0.00508880615234375</v>
+        <v>0.04815673828125</v>
       </c>
       <c r="E25">
-        <v>-0.2060546875</v>
+        <v>0.276123046875</v>
       </c>
       <c r="F25">
-        <v>-0.033172607421875</v>
+        <v>-0.06109619140625</v>
       </c>
       <c r="G25">
-        <v>-0.50634765625</v>
+        <v>0.1558837890625</v>
       </c>
       <c r="H25">
-        <v>-0.0218963623046875</v>
+        <v>-0.042816162109375</v>
       </c>
       <c r="I25">
-        <v>-0.033172607421875</v>
+        <v>-0.06109619140625</v>
       </c>
       <c r="J25">
-        <v>-0.0904541015625</v>
+        <v>0.384521484375</v>
       </c>
       <c r="K25">
-        <v>0.75244140625</v>
+        <v>0.97509765625</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1731,34 +1731,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.051116943359375</v>
+        <v>0.006511688232421875</v>
       </c>
       <c r="C26">
-        <v>-0.06317138671875</v>
+        <v>-0.2152099609375</v>
       </c>
       <c r="D26">
-        <v>0.014678955078125</v>
+        <v>0.0452880859375</v>
       </c>
       <c r="E26">
-        <v>0.2364501953125</v>
+        <v>0.434814453125</v>
       </c>
       <c r="F26">
-        <v>-0.06298828125</v>
+        <v>0.048431396484375</v>
       </c>
       <c r="G26">
-        <v>0.349853515625</v>
+        <v>0.66015625</v>
       </c>
       <c r="H26">
-        <v>-0.03515625</v>
+        <v>-0.15087890625</v>
       </c>
       <c r="I26">
-        <v>-0.06298828125</v>
+        <v>0.048431396484375</v>
       </c>
       <c r="J26">
-        <v>-0.04608154296875</v>
+        <v>-0.1002197265625</v>
       </c>
       <c r="K26">
-        <v>-0.998046875</v>
+        <v>-0.9716796875</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1766,34 +1766,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.0114288330078125</v>
+        <v>-0.4677734375</v>
       </c>
       <c r="C27">
-        <v>0.06817626953125</v>
+        <v>-0.05718994140625</v>
       </c>
       <c r="D27">
-        <v>-0.0049591064453125</v>
+        <v>0.043731689453125</v>
       </c>
       <c r="E27">
-        <v>-0.358642578125</v>
+        <v>-0.787109375</v>
       </c>
       <c r="F27">
-        <v>-0.035186767578125</v>
+        <v>-0.13134765625</v>
       </c>
       <c r="G27">
-        <v>-0.99462890625</v>
+        <v>-0.8310546875</v>
       </c>
       <c r="H27">
-        <v>0.003292083740234375</v>
+        <v>-0.0211029052734375</v>
       </c>
       <c r="I27">
-        <v>-0.035186767578125</v>
+        <v>-0.13134765625</v>
       </c>
       <c r="J27">
-        <v>0.0311279296875</v>
+        <v>0.304931640625</v>
       </c>
       <c r="K27">
-        <v>-0.6201171875</v>
+        <v>-0.338134765625</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1801,34 +1801,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.004924774169921875</v>
+        <v>-0.300048828125</v>
       </c>
       <c r="C28">
-        <v>0.043182373046875</v>
+        <v>0.03363037109375</v>
       </c>
       <c r="D28">
-        <v>-0.01556396484375</v>
+        <v>-0.07373046875</v>
       </c>
       <c r="E28">
-        <v>-0.548828125</v>
+        <v>-0.896484375</v>
       </c>
       <c r="F28">
-        <v>-0.04412841796875</v>
+        <v>-0.1422119140625</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>-0.65380859375</v>
       </c>
       <c r="H28">
-        <v>0.0093994140625</v>
+        <v>-0.06561279296875</v>
       </c>
       <c r="I28">
-        <v>-0.04412841796875</v>
+        <v>-0.1422119140625</v>
       </c>
       <c r="J28">
-        <v>0.1187744140625</v>
+        <v>0.0989990234375</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>0.45458984375</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1836,34 +1836,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.07012939453125</v>
+        <v>0.356689453125</v>
       </c>
       <c r="C29">
-        <v>0.108154296875</v>
+        <v>0.288330078125</v>
       </c>
       <c r="D29">
-        <v>-0.0217742919921875</v>
+        <v>-0.05975341796875</v>
       </c>
       <c r="E29">
-        <v>0.271240234375</v>
+        <v>0.069091796875</v>
       </c>
       <c r="F29">
-        <v>-0.10321044921875</v>
+        <v>0.0364990234375</v>
       </c>
       <c r="G29">
-        <v>-0.591796875</v>
+        <v>-0.1455078125</v>
       </c>
       <c r="H29">
-        <v>0.0002768039703369141</v>
+        <v>4.822015762329102E-05</v>
       </c>
       <c r="I29">
-        <v>-0.10321044921875</v>
+        <v>0.0364990234375</v>
       </c>
       <c r="J29">
-        <v>0.1031494140625</v>
+        <v>0.1439208984375</v>
       </c>
       <c r="K29">
-        <v>-0.998046875</v>
+        <v>-0.8779296875</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1871,34 +1871,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.002643585205078125</v>
+        <v>0.14111328125</v>
       </c>
       <c r="C30">
-        <v>-0.0258941650390625</v>
+        <v>-0.259033203125</v>
       </c>
       <c r="D30">
-        <v>0.00502777099609375</v>
+        <v>0.03424072265625</v>
       </c>
       <c r="E30">
-        <v>-0.4990234375</v>
+        <v>-0.145751953125</v>
       </c>
       <c r="F30">
-        <v>0.004024505615234375</v>
+        <v>0.0423583984375</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>-0.97265625</v>
       </c>
       <c r="H30">
-        <v>-0.003541946411132812</v>
+        <v>-0.062225341796875</v>
       </c>
       <c r="I30">
-        <v>0.004024505615234375</v>
+        <v>0.0423583984375</v>
       </c>
       <c r="J30">
-        <v>0.001462936401367188</v>
+        <v>-0.00878143310546875</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>-0.94580078125</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1906,34 +1906,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.06640625</v>
+        <v>0.26025390625</v>
       </c>
       <c r="C31">
-        <v>0.0161590576171875</v>
+        <v>-0.1400146484375</v>
       </c>
       <c r="D31">
-        <v>-0.005584716796875</v>
+        <v>0.10186767578125</v>
       </c>
       <c r="E31">
-        <v>0.11309814453125</v>
+        <v>0.4697265625</v>
       </c>
       <c r="F31">
-        <v>-0.07550048828125</v>
+        <v>-0.1016845703125</v>
       </c>
       <c r="G31">
-        <v>-0.84423828125</v>
+        <v>-0.8720703125</v>
       </c>
       <c r="H31">
-        <v>-0.0229034423828125</v>
+        <v>-0.05242919921875</v>
       </c>
       <c r="I31">
-        <v>-0.07550048828125</v>
+        <v>-0.1016845703125</v>
       </c>
       <c r="J31">
-        <v>-0.034576416015625</v>
+        <v>-0.25830078125</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>-0.87841796875</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1941,34 +1941,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1444091796875</v>
+        <v>0.08355712890625</v>
       </c>
       <c r="C32">
-        <v>0.07122802734375</v>
+        <v>0.09765625</v>
       </c>
       <c r="D32">
-        <v>-0.01389312744140625</v>
+        <v>-0.005413055419921875</v>
       </c>
       <c r="E32">
-        <v>-0.1356201171875</v>
+        <v>-0.033294677734375</v>
       </c>
       <c r="F32">
-        <v>0.0164794921875</v>
+        <v>0.03582763671875</v>
       </c>
       <c r="G32">
-        <v>-0.1385498046875</v>
+        <v>0.1705322265625</v>
       </c>
       <c r="H32">
-        <v>0.0118560791015625</v>
+        <v>0.054931640625</v>
       </c>
       <c r="I32">
-        <v>0.0164794921875</v>
+        <v>0.03582763671875</v>
       </c>
       <c r="J32">
-        <v>0.0299072265625</v>
+        <v>0.060211181640625</v>
       </c>
       <c r="K32">
-        <v>-0.80712890625</v>
+        <v>-0.89697265625</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1976,34 +1976,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.03961181640625</v>
+        <v>0.2587890625</v>
       </c>
       <c r="C33">
-        <v>-0.02008056640625</v>
+        <v>-0.11419677734375</v>
       </c>
       <c r="D33">
-        <v>-0.0289764404296875</v>
+        <v>0.064453125</v>
       </c>
       <c r="E33">
-        <v>-0.281494140625</v>
+        <v>-0.56884765625</v>
       </c>
       <c r="F33">
-        <v>-0.131591796875</v>
+        <v>-0.19091796875</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>-0.95166015625</v>
       </c>
       <c r="H33">
-        <v>-0.007904052734375</v>
+        <v>-0.068603515625</v>
       </c>
       <c r="I33">
-        <v>-0.131591796875</v>
+        <v>-0.19091796875</v>
       </c>
       <c r="J33">
-        <v>0.0643310546875</v>
+        <v>-0.33251953125</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>-0.818359375</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2011,34 +2011,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.081298828125</v>
+        <v>-0.300537109375</v>
       </c>
       <c r="C34">
-        <v>-0.048797607421875</v>
+        <v>-0.050537109375</v>
       </c>
       <c r="D34">
-        <v>0.032470703125</v>
+        <v>0.031494140625</v>
       </c>
       <c r="E34">
-        <v>0.021697998046875</v>
+        <v>0.480712890625</v>
       </c>
       <c r="F34">
-        <v>-0.01204681396484375</v>
+        <v>0.117919921875</v>
       </c>
       <c r="G34">
-        <v>-0.97314453125</v>
+        <v>-0.8125</v>
       </c>
       <c r="H34">
-        <v>-0.04412841796875</v>
+        <v>-0.06494140625</v>
       </c>
       <c r="I34">
-        <v>-0.01204681396484375</v>
+        <v>0.117919921875</v>
       </c>
       <c r="J34">
-        <v>-0.0718994140625</v>
+        <v>-0.107666015625</v>
       </c>
       <c r="K34">
-        <v>0.99609375</v>
+        <v>0.49560546875</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2046,34 +2046,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.07257080078125</v>
+        <v>0.0869140625</v>
       </c>
       <c r="C35">
-        <v>-0.08929443359375</v>
+        <v>-0.2529296875</v>
       </c>
       <c r="D35">
-        <v>0.0217437744140625</v>
+        <v>0.03277587890625</v>
       </c>
       <c r="E35">
-        <v>0.233154296875</v>
+        <v>0.057342529296875</v>
       </c>
       <c r="F35">
-        <v>0.00627899169921875</v>
+        <v>0.0202484130859375</v>
       </c>
       <c r="G35">
-        <v>0.365234375</v>
+        <v>0.8916015625</v>
       </c>
       <c r="H35">
-        <v>-0.0195465087890625</v>
+        <v>-0.06146240234375</v>
       </c>
       <c r="I35">
-        <v>0.00627899169921875</v>
+        <v>0.0202484130859375</v>
       </c>
       <c r="J35">
-        <v>-0.0147552490234375</v>
+        <v>-0.363525390625</v>
       </c>
       <c r="K35">
-        <v>-0.99853515625</v>
+        <v>-0.69775390625</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2081,34 +2081,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.051513671875</v>
+        <v>0.474609375</v>
       </c>
       <c r="C36">
-        <v>-0.093505859375</v>
+        <v>-0.2149658203125</v>
       </c>
       <c r="D36">
-        <v>-0.00363922119140625</v>
+        <v>0.0985107421875</v>
       </c>
       <c r="E36">
-        <v>-0.016510009765625</v>
+        <v>-0.65966796875</v>
       </c>
       <c r="F36">
-        <v>-0.0361328125</v>
+        <v>0.05389404296875</v>
       </c>
       <c r="G36">
-        <v>-0.998046875</v>
+        <v>-0.8330078125</v>
       </c>
       <c r="H36">
-        <v>-0.00223541259765625</v>
+        <v>0.01629638671875</v>
       </c>
       <c r="I36">
-        <v>-0.0361328125</v>
+        <v>0.05389404296875</v>
       </c>
       <c r="J36">
-        <v>0.059112548828125</v>
+        <v>-0.1192626953125</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>-0.587890625</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2116,34 +2116,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01242828369140625</v>
+        <v>-0.170166015625</v>
       </c>
       <c r="C37">
-        <v>-0.049652099609375</v>
+        <v>-0.329345703125</v>
       </c>
       <c r="D37">
-        <v>0.0098876953125</v>
+        <v>0.038360595703125</v>
       </c>
       <c r="E37">
-        <v>-0.1893310546875</v>
+        <v>-0.76220703125</v>
       </c>
       <c r="F37">
-        <v>0.001024246215820312</v>
+        <v>-0.0007524490356445312</v>
       </c>
       <c r="G37">
-        <v>-0.99951171875</v>
+        <v>-0.308837890625</v>
       </c>
       <c r="H37">
-        <v>-0.007450103759765625</v>
+        <v>0.01739501953125</v>
       </c>
       <c r="I37">
-        <v>0.001024246215820312</v>
+        <v>-0.0007524490356445312</v>
       </c>
       <c r="J37">
-        <v>0.0159454345703125</v>
+        <v>-0.50341796875</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>-0.814453125</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2151,34 +2151,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.06573486328125</v>
+        <v>0.26513671875</v>
       </c>
       <c r="C38">
-        <v>0.00140380859375</v>
+        <v>-0.1915283203125</v>
       </c>
       <c r="D38">
-        <v>-0.006824493408203125</v>
+        <v>0.064697265625</v>
       </c>
       <c r="E38">
-        <v>0.115478515625</v>
+        <v>0.2291259765625</v>
       </c>
       <c r="F38">
-        <v>-0.03265380859375</v>
+        <v>0.019287109375</v>
       </c>
       <c r="G38">
-        <v>0.8271484375</v>
+        <v>0.79248046875</v>
       </c>
       <c r="H38">
-        <v>-0.002864837646484375</v>
+        <v>-0.040771484375</v>
       </c>
       <c r="I38">
-        <v>-0.03265380859375</v>
+        <v>0.019287109375</v>
       </c>
       <c r="J38">
-        <v>-0.0139312744140625</v>
+        <v>-0.01236724853515625</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>-0.387939453125</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2186,34 +2186,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.006519317626953125</v>
+        <v>0.190185546875</v>
       </c>
       <c r="C39">
-        <v>-0.11602783203125</v>
+        <v>-0.141845703125</v>
       </c>
       <c r="D39">
-        <v>0.0250091552734375</v>
+        <v>0.103515625</v>
       </c>
       <c r="E39">
-        <v>0.0174102783203125</v>
+        <v>0.134521484375</v>
       </c>
       <c r="F39">
-        <v>-0.006977081298828125</v>
+        <v>0.03717041015625</v>
       </c>
       <c r="G39">
-        <v>-0.54443359375</v>
+        <v>0.01238250732421875</v>
       </c>
       <c r="H39">
-        <v>-0.0213775634765625</v>
+        <v>-0.052001953125</v>
       </c>
       <c r="I39">
-        <v>-0.006977081298828125</v>
+        <v>0.03717041015625</v>
       </c>
       <c r="J39">
-        <v>-0.01007080078125</v>
+        <v>-0.6181640625</v>
       </c>
       <c r="K39">
-        <v>-0.99365234375</v>
+        <v>-0.87060546875</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2221,34 +2221,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.06500244140625</v>
+        <v>0.0660400390625</v>
       </c>
       <c r="C40">
-        <v>0.08538818359375</v>
+        <v>0.0914306640625</v>
       </c>
       <c r="D40">
-        <v>-0.0074310302734375</v>
+        <v>-0.060943603515625</v>
       </c>
       <c r="E40">
-        <v>0.12274169921875</v>
+        <v>0.09307861328125</v>
       </c>
       <c r="F40">
-        <v>-0.0167236328125</v>
+        <v>-0.107666015625</v>
       </c>
       <c r="G40">
-        <v>-0.51220703125</v>
+        <v>-0.87353515625</v>
       </c>
       <c r="H40">
-        <v>0.0093841552734375</v>
+        <v>-0.017852783203125</v>
       </c>
       <c r="I40">
-        <v>-0.0167236328125</v>
+        <v>-0.107666015625</v>
       </c>
       <c r="J40">
-        <v>0.0654296875</v>
+        <v>0.167236328125</v>
       </c>
       <c r="K40">
-        <v>-0.74072265625</v>
+        <v>-0.93408203125</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2256,34 +2256,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1162109375</v>
+        <v>0.01331329345703125</v>
       </c>
       <c r="C41">
-        <v>0.024261474609375</v>
+        <v>0.1763916015625</v>
       </c>
       <c r="D41">
-        <v>0.016693115234375</v>
+        <v>0.02410888671875</v>
       </c>
       <c r="E41">
-        <v>0.2296142578125</v>
+        <v>-0.3408203125</v>
       </c>
       <c r="F41">
-        <v>0.03216552734375</v>
+        <v>0.049774169921875</v>
       </c>
       <c r="G41">
-        <v>-0.98974609375</v>
+        <v>-0.712890625</v>
       </c>
       <c r="H41">
-        <v>-0.008575439453125</v>
+        <v>0.050323486328125</v>
       </c>
       <c r="I41">
-        <v>0.03216552734375</v>
+        <v>0.049774169921875</v>
       </c>
       <c r="J41">
-        <v>0.012237548828125</v>
+        <v>-0.1309814453125</v>
       </c>
       <c r="K41">
-        <v>-0.9853515625</v>
+        <v>-0.6943359375</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2291,34 +2291,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.01236724853515625</v>
+        <v>0.28955078125</v>
       </c>
       <c r="C42">
-        <v>0.0384521484375</v>
+        <v>0.131103515625</v>
       </c>
       <c r="D42">
-        <v>-0.005840301513671875</v>
+        <v>0.0287017822265625</v>
       </c>
       <c r="E42">
-        <v>-0.177001953125</v>
+        <v>-0.80810546875</v>
       </c>
       <c r="F42">
-        <v>-0.00829315185546875</v>
+        <v>-0.0843505859375</v>
       </c>
       <c r="G42">
-        <v>-0.434326171875</v>
+        <v>-0.8984375</v>
       </c>
       <c r="H42">
-        <v>0.002611160278320312</v>
+        <v>-0.00453948974609375</v>
       </c>
       <c r="I42">
-        <v>-0.00829315185546875</v>
+        <v>-0.0843505859375</v>
       </c>
       <c r="J42">
-        <v>-0.01580810546875</v>
+        <v>-0.0195465087890625</v>
       </c>
       <c r="K42">
-        <v>-0.69677734375</v>
+        <v>-0.97705078125</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2326,34 +2326,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1029052734375</v>
+        <v>0.09112548828125</v>
       </c>
       <c r="C43">
-        <v>0.143310546875</v>
+        <v>0.1705322265625</v>
       </c>
       <c r="D43">
-        <v>-0.0222015380859375</v>
+        <v>-0.045440673828125</v>
       </c>
       <c r="E43">
-        <v>-0.94970703125</v>
+        <v>-0.4453125</v>
       </c>
       <c r="F43">
-        <v>-0.0114898681640625</v>
+        <v>-0.0277099609375</v>
       </c>
       <c r="G43">
-        <v>-1</v>
+        <v>-0.841796875</v>
       </c>
       <c r="H43">
-        <v>-0.00873565673828125</v>
+        <v>0.018035888671875</v>
       </c>
       <c r="I43">
-        <v>-0.0114898681640625</v>
+        <v>-0.0277099609375</v>
       </c>
       <c r="J43">
-        <v>-0.082275390625</v>
+        <v>-0.1522216796875</v>
       </c>
       <c r="K43">
-        <v>-0.99853515625</v>
+        <v>-0.23974609375</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2361,34 +2361,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.048309326171875</v>
+        <v>-0.04461669921875</v>
       </c>
       <c r="C44">
-        <v>0.10284423828125</v>
+        <v>-0.1080322265625</v>
       </c>
       <c r="D44">
-        <v>-0.02716064453125</v>
+        <v>-0.01132965087890625</v>
       </c>
       <c r="E44">
-        <v>-0.158203125</v>
+        <v>-0.6875</v>
       </c>
       <c r="F44">
-        <v>-0.06854248046875</v>
+        <v>-0.1492919921875</v>
       </c>
       <c r="G44">
-        <v>-0.9365234375</v>
+        <v>-0.6708984375</v>
       </c>
       <c r="H44">
-        <v>0.00605010986328125</v>
+        <v>0.0005779266357421875</v>
       </c>
       <c r="I44">
-        <v>-0.06854248046875</v>
+        <v>-0.1492919921875</v>
       </c>
       <c r="J44">
-        <v>0.047027587890625</v>
+        <v>-0.233642578125</v>
       </c>
       <c r="K44">
-        <v>-0.9921875</v>
+        <v>-0.71044921875</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2396,34 +2396,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0193328857421875</v>
+        <v>0.17822265625</v>
       </c>
       <c r="C45">
-        <v>-0.003614425659179688</v>
+        <v>0.053466796875</v>
       </c>
       <c r="D45">
-        <v>0.004024505615234375</v>
+        <v>0.046142578125</v>
       </c>
       <c r="E45">
-        <v>0.001474380493164062</v>
+        <v>-0.1302490234375</v>
       </c>
       <c r="F45">
-        <v>0.00447845458984375</v>
+        <v>-0.0204315185546875</v>
       </c>
       <c r="G45">
-        <v>0.0212249755859375</v>
+        <v>-0.73876953125</v>
       </c>
       <c r="H45">
-        <v>0.001026153564453125</v>
+        <v>-0.057281494140625</v>
       </c>
       <c r="I45">
-        <v>0.00447845458984375</v>
+        <v>-0.0204315185546875</v>
       </c>
       <c r="J45">
-        <v>0.0211029052734375</v>
+        <v>-0.334716796875</v>
       </c>
       <c r="K45">
-        <v>0.10186767578125</v>
+        <v>0.1356201171875</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2431,34 +2431,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.003263473510742188</v>
+        <v>0.0218353271484375</v>
       </c>
       <c r="C46">
-        <v>0.0262298583984375</v>
+        <v>-0.08123779296875</v>
       </c>
       <c r="D46">
-        <v>-0.006710052490234375</v>
+        <v>-0.033050537109375</v>
       </c>
       <c r="E46">
-        <v>-0.50146484375</v>
+        <v>-0.400146484375</v>
       </c>
       <c r="F46">
-        <v>-0.00684356689453125</v>
+        <v>-0.08990478515625</v>
       </c>
       <c r="G46">
-        <v>-0.99609375</v>
+        <v>-0.89794921875</v>
       </c>
       <c r="H46">
-        <v>-0.00112152099609375</v>
+        <v>-0.04498291015625</v>
       </c>
       <c r="I46">
-        <v>-0.00684356689453125</v>
+        <v>-0.08990478515625</v>
       </c>
       <c r="J46">
-        <v>-0.061798095703125</v>
+        <v>0.1826171875</v>
       </c>
       <c r="K46">
-        <v>-0.99951171875</v>
+        <v>-0.814453125</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2466,34 +2466,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0267181396484375</v>
+        <v>-0.287109375</v>
       </c>
       <c r="C47">
-        <v>0.00951385498046875</v>
+        <v>0.0216522216796875</v>
       </c>
       <c r="D47">
-        <v>0.002628326416015625</v>
+        <v>0.005336761474609375</v>
       </c>
       <c r="E47">
-        <v>0.04510498046875</v>
+        <v>-0.4599609375</v>
       </c>
       <c r="F47">
-        <v>0.004123687744140625</v>
+        <v>-0.009368896484375</v>
       </c>
       <c r="G47">
-        <v>-0.244384765625</v>
+        <v>-0.086669921875</v>
       </c>
       <c r="H47">
-        <v>-0.002407073974609375</v>
+        <v>-0.01093292236328125</v>
       </c>
       <c r="I47">
-        <v>0.004123687744140625</v>
+        <v>-0.009368896484375</v>
       </c>
       <c r="J47">
-        <v>0.003589630126953125</v>
+        <v>0.234375</v>
       </c>
       <c r="K47">
-        <v>0.6015625</v>
+        <v>0.802734375</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2501,34 +2501,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.059539794921875</v>
+        <v>-0.041900634765625</v>
       </c>
       <c r="C48">
-        <v>0.069091796875</v>
+        <v>0.09033203125</v>
       </c>
       <c r="D48">
-        <v>-0.0298614501953125</v>
+        <v>-0.001451492309570312</v>
       </c>
       <c r="E48">
-        <v>-0.418212890625</v>
+        <v>-0.46484375</v>
       </c>
       <c r="F48">
-        <v>-0.0369873046875</v>
+        <v>-0.1380615234375</v>
       </c>
       <c r="G48">
-        <v>-0.97314453125</v>
+        <v>-0.810546875</v>
       </c>
       <c r="H48">
-        <v>0.0041656494140625</v>
+        <v>0.042877197265625</v>
       </c>
       <c r="I48">
-        <v>-0.0369873046875</v>
+        <v>-0.1380615234375</v>
       </c>
       <c r="J48">
-        <v>-0.0977783203125</v>
+        <v>0.0214385986328125</v>
       </c>
       <c r="K48">
-        <v>-1</v>
+        <v>0.052337646484375</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2536,34 +2536,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.03887939453125</v>
+        <v>0.2391357421875</v>
       </c>
       <c r="C49">
-        <v>-0.196044921875</v>
+        <v>0.069580078125</v>
       </c>
       <c r="D49">
-        <v>0.03692626953125</v>
+        <v>0.01352691650390625</v>
       </c>
       <c r="E49">
-        <v>-0.260498046875</v>
+        <v>0.0635986328125</v>
       </c>
       <c r="F49">
-        <v>0.016998291015625</v>
+        <v>-0.005298614501953125</v>
       </c>
       <c r="G49">
-        <v>-1</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="H49">
-        <v>-0.0194091796875</v>
+        <v>0.012481689453125</v>
       </c>
       <c r="I49">
-        <v>0.016998291015625</v>
+        <v>-0.005298614501953125</v>
       </c>
       <c r="J49">
-        <v>0.09912109375</v>
+        <v>-0.161865234375</v>
       </c>
       <c r="K49">
-        <v>-1</v>
+        <v>-0.572265625</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2571,34 +2571,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.061859130859375</v>
+        <v>-0.427978515625</v>
       </c>
       <c r="C50">
-        <v>0.08038330078125</v>
+        <v>0.044281005859375</v>
       </c>
       <c r="D50">
-        <v>-0.011016845703125</v>
+        <v>-0.01328277587890625</v>
       </c>
       <c r="E50">
-        <v>0.035919189453125</v>
+        <v>-0.53466796875</v>
       </c>
       <c r="F50">
-        <v>-0.09033203125</v>
+        <v>-0.053558349609375</v>
       </c>
       <c r="G50">
-        <v>-0.390380859375</v>
+        <v>0.342529296875</v>
       </c>
       <c r="H50">
-        <v>-0.016204833984375</v>
+        <v>-0.081787109375</v>
       </c>
       <c r="I50">
-        <v>-0.09033203125</v>
+        <v>-0.053558349609375</v>
       </c>
       <c r="J50">
-        <v>0.0147247314453125</v>
+        <v>0.3203125</v>
       </c>
       <c r="K50">
-        <v>0.68359375</v>
+        <v>0.73291015625</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2606,34 +2606,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1839599609375</v>
+        <v>0.1907958984375</v>
       </c>
       <c r="C51">
-        <v>0.1365966796875</v>
+        <v>0.054351806640625</v>
       </c>
       <c r="D51">
-        <v>-0.020233154296875</v>
+        <v>0.0250701904296875</v>
       </c>
       <c r="E51">
-        <v>0.60498046875</v>
+        <v>0.955078125</v>
       </c>
       <c r="F51">
-        <v>-0.040863037109375</v>
+        <v>0.1219482421875</v>
       </c>
       <c r="G51">
-        <v>0.96142578125</v>
+        <v>0.9853515625</v>
       </c>
       <c r="H51">
-        <v>0.009490966796875</v>
+        <v>0.017578125</v>
       </c>
       <c r="I51">
-        <v>-0.040863037109375</v>
+        <v>0.1219482421875</v>
       </c>
       <c r="J51">
-        <v>0.07550048828125</v>
+        <v>-0.0008335113525390625</v>
       </c>
       <c r="K51">
-        <v>-1</v>
+        <v>-0.9619140625</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2641,34 +2641,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.04638671875</v>
+        <v>-0.09613037109375</v>
       </c>
       <c r="C52">
-        <v>0.09136962890625</v>
+        <v>0.0203857421875</v>
       </c>
       <c r="D52">
-        <v>-0.0183563232421875</v>
+        <v>0.0123443603515625</v>
       </c>
       <c r="E52">
-        <v>-0.09149169921875</v>
+        <v>0.4013671875</v>
       </c>
       <c r="F52">
-        <v>-0.0413818359375</v>
+        <v>-0.00814056396484375</v>
       </c>
       <c r="G52">
-        <v>-0.66015625</v>
+        <v>-0.818359375</v>
       </c>
       <c r="H52">
-        <v>-0.001562118530273438</v>
+        <v>0.0152587890625</v>
       </c>
       <c r="I52">
-        <v>-0.0413818359375</v>
+        <v>-0.00814056396484375</v>
       </c>
       <c r="J52">
-        <v>-0.044677734375</v>
+        <v>-0.2386474609375</v>
       </c>
       <c r="K52">
-        <v>-0.9990234375</v>
+        <v>-0.94921875</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2676,34 +2676,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.2197265625</v>
+        <v>0.372314453125</v>
       </c>
       <c r="C53">
-        <v>-0.350830078125</v>
+        <v>-0.60205078125</v>
       </c>
       <c r="D53">
-        <v>0.14990234375</v>
+        <v>0.257568359375</v>
       </c>
       <c r="E53">
-        <v>-0.7197265625</v>
+        <v>-0.60400390625</v>
       </c>
       <c r="F53">
-        <v>0.046173095703125</v>
+        <v>0.06561279296875</v>
       </c>
       <c r="G53">
-        <v>-1</v>
+        <v>-0.9931640625</v>
       </c>
       <c r="H53">
-        <v>-0.09735107421875</v>
+        <v>0.01317596435546875</v>
       </c>
       <c r="I53">
-        <v>0.046173095703125</v>
+        <v>0.06561279296875</v>
       </c>
       <c r="J53">
-        <v>0.28662109375</v>
+        <v>0.341552734375</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.97216796875</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2711,34 +2711,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.02386474609375</v>
+        <v>0.35693359375</v>
       </c>
       <c r="C54">
-        <v>0.01357269287109375</v>
+        <v>0.1883544921875</v>
       </c>
       <c r="D54">
-        <v>-0.0094146728515625</v>
+        <v>0.047760009765625</v>
       </c>
       <c r="E54">
-        <v>-0.1473388671875</v>
+        <v>0.26025390625</v>
       </c>
       <c r="F54">
-        <v>-0.04583740234375</v>
+        <v>-0.11676025390625</v>
       </c>
       <c r="G54">
-        <v>-0.98291015625</v>
+        <v>-0.9638671875</v>
       </c>
       <c r="H54">
-        <v>-0.0092010498046875</v>
+        <v>-0.00528717041015625</v>
       </c>
       <c r="I54">
-        <v>-0.04583740234375</v>
+        <v>-0.11676025390625</v>
       </c>
       <c r="J54">
-        <v>-0.019439697265625</v>
+        <v>-0.63671875</v>
       </c>
       <c r="K54">
-        <v>-1</v>
+        <v>-0.4384765625</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2746,34 +2746,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.008544921875</v>
+        <v>-0.2039794921875</v>
       </c>
       <c r="C55">
-        <v>-0.066650390625</v>
+        <v>0.1614990234375</v>
       </c>
       <c r="D55">
-        <v>0.031097412109375</v>
+        <v>0.08880615234375</v>
       </c>
       <c r="E55">
-        <v>-0.1590576171875</v>
+        <v>-0.5302734375</v>
       </c>
       <c r="F55">
-        <v>0.0137939453125</v>
+        <v>0.0743408203125</v>
       </c>
       <c r="G55">
-        <v>-0.7578125</v>
+        <v>-0.66845703125</v>
       </c>
       <c r="H55">
-        <v>-0.029388427734375</v>
+        <v>-0.0232696533203125</v>
       </c>
       <c r="I55">
-        <v>0.0137939453125</v>
+        <v>0.0743408203125</v>
       </c>
       <c r="J55">
-        <v>-0.1087646484375</v>
+        <v>-0.40283203125</v>
       </c>
       <c r="K55">
-        <v>-0.34619140625</v>
+        <v>-0.10797119140625</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2781,34 +2781,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0218353271484375</v>
+        <v>0.1258544921875</v>
       </c>
       <c r="C56">
-        <v>0.051239013671875</v>
+        <v>-0.0311126708984375</v>
       </c>
       <c r="D56">
-        <v>-0.00742340087890625</v>
+        <v>0.0297393798828125</v>
       </c>
       <c r="E56">
-        <v>-0.443603515625</v>
+        <v>-0.4990234375</v>
       </c>
       <c r="F56">
-        <v>-0.002803802490234375</v>
+        <v>0.0631103515625</v>
       </c>
       <c r="G56">
-        <v>-0.7900390625</v>
+        <v>-0.7333984375</v>
       </c>
       <c r="H56">
-        <v>-0.002435684204101562</v>
+        <v>0.00830078125</v>
       </c>
       <c r="I56">
-        <v>-0.002803802490234375</v>
+        <v>0.0631103515625</v>
       </c>
       <c r="J56">
-        <v>-0.11865234375</v>
+        <v>-0.264892578125</v>
       </c>
       <c r="K56">
-        <v>-1</v>
+        <v>-0.91064453125</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2816,34 +2816,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0239105224609375</v>
+        <v>0.3681640625</v>
       </c>
       <c r="C57">
-        <v>-0.156982421875</v>
+        <v>-0.2281494140625</v>
       </c>
       <c r="D57">
-        <v>0.0233612060546875</v>
+        <v>0.00634765625</v>
       </c>
       <c r="E57">
-        <v>-0.4228515625</v>
+        <v>0.09222412109375</v>
       </c>
       <c r="F57">
-        <v>0.0154266357421875</v>
+        <v>-0.01242828369140625</v>
       </c>
       <c r="G57">
-        <v>-1</v>
+        <v>-0.98388671875</v>
       </c>
       <c r="H57">
-        <v>-0.0108642578125</v>
+        <v>-0.016632080078125</v>
       </c>
       <c r="I57">
-        <v>0.0154266357421875</v>
+        <v>-0.01242828369140625</v>
       </c>
       <c r="J57">
-        <v>0.0665283203125</v>
+        <v>-0.47705078125</v>
       </c>
       <c r="K57">
-        <v>-1</v>
+        <v>-0.9072265625</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2851,34 +2851,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.001821517944335938</v>
+        <v>-0.4208984375</v>
       </c>
       <c r="C58">
-        <v>0.06134033203125</v>
+        <v>0.1134033203125</v>
       </c>
       <c r="D58">
-        <v>-0.0123443603515625</v>
+        <v>-0.021514892578125</v>
       </c>
       <c r="E58">
-        <v>-0.2108154296875</v>
+        <v>-0.25537109375</v>
       </c>
       <c r="F58">
-        <v>-0.02606201171875</v>
+        <v>0.072998046875</v>
       </c>
       <c r="G58">
-        <v>-0.97412109375</v>
+        <v>-0.98291015625</v>
       </c>
       <c r="H58">
-        <v>0.0124359130859375</v>
+        <v>0.0357666015625</v>
       </c>
       <c r="I58">
-        <v>-0.02606201171875</v>
+        <v>0.072998046875</v>
       </c>
       <c r="J58">
-        <v>0.052581787109375</v>
+        <v>-0.284423828125</v>
       </c>
       <c r="K58">
-        <v>-0.99755859375</v>
+        <v>-0.7861328125</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2886,34 +2886,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.021484375</v>
+        <v>-0.10235595703125</v>
       </c>
       <c r="C59">
-        <v>-0.008544921875</v>
+        <v>-0.13818359375</v>
       </c>
       <c r="D59">
-        <v>-0.003093719482421875</v>
+        <v>0.0865478515625</v>
       </c>
       <c r="E59">
-        <v>-0.311767578125</v>
+        <v>-0.68017578125</v>
       </c>
       <c r="F59">
-        <v>0.000759124755859375</v>
+        <v>0.00982666015625</v>
       </c>
       <c r="G59">
-        <v>-0.99951171875</v>
+        <v>-0.93408203125</v>
       </c>
       <c r="H59">
-        <v>0.004886627197265625</v>
+        <v>0.00634765625</v>
       </c>
       <c r="I59">
-        <v>0.000759124755859375</v>
+        <v>0.00982666015625</v>
       </c>
       <c r="J59">
-        <v>0.050323486328125</v>
+        <v>-0.041778564453125</v>
       </c>
       <c r="K59">
-        <v>-1</v>
+        <v>-0.93212890625</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2921,34 +2921,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.059417724609375</v>
+        <v>-0.004207611083984375</v>
       </c>
       <c r="C60">
-        <v>-0.169189453125</v>
+        <v>-0.08465576171875</v>
       </c>
       <c r="D60">
-        <v>0.031494140625</v>
+        <v>0.069091796875</v>
       </c>
       <c r="E60">
-        <v>-0.75048828125</v>
+        <v>-0.736328125</v>
       </c>
       <c r="F60">
-        <v>-0.001337051391601562</v>
+        <v>0.08245849609375</v>
       </c>
       <c r="G60">
-        <v>-1</v>
+        <v>-0.98388671875</v>
       </c>
       <c r="H60">
-        <v>-0.011016845703125</v>
+        <v>-0.001333236694335938</v>
       </c>
       <c r="I60">
-        <v>-0.001337051391601562</v>
+        <v>0.08245849609375</v>
       </c>
       <c r="J60">
-        <v>0.2548828125</v>
+        <v>0.51123046875</v>
       </c>
       <c r="K60">
-        <v>-1</v>
+        <v>-0.96240234375</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2956,34 +2956,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.060089111328125</v>
+        <v>0.1456298828125</v>
       </c>
       <c r="C61">
-        <v>-0.0714111328125</v>
+        <v>-0.131591796875</v>
       </c>
       <c r="D61">
-        <v>0.009613037109375</v>
+        <v>0.0172119140625</v>
       </c>
       <c r="E61">
-        <v>-0.102783203125</v>
+        <v>-0.4521484375</v>
       </c>
       <c r="F61">
-        <v>-0.01593017578125</v>
+        <v>0.0230865478515625</v>
       </c>
       <c r="G61">
-        <v>-0.98828125</v>
+        <v>-0.78759765625</v>
       </c>
       <c r="H61">
-        <v>-0.0216827392578125</v>
+        <v>-0.003046035766601562</v>
       </c>
       <c r="I61">
-        <v>-0.01593017578125</v>
+        <v>0.0230865478515625</v>
       </c>
       <c r="J61">
-        <v>-0.048431396484375</v>
+        <v>-0.0295867919921875</v>
       </c>
       <c r="K61">
-        <v>-1</v>
+        <v>-0.783203125</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2991,34 +2991,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.020111083984375</v>
+        <v>-0.0732421875</v>
       </c>
       <c r="C62">
-        <v>-0.03802490234375</v>
+        <v>0.236572265625</v>
       </c>
       <c r="D62">
-        <v>-0.00603485107421875</v>
+        <v>0.0105743408203125</v>
       </c>
       <c r="E62">
-        <v>-0.2431640625</v>
+        <v>-0.7109375</v>
       </c>
       <c r="F62">
-        <v>-0.048309326171875</v>
+        <v>-0.104736328125</v>
       </c>
       <c r="G62">
-        <v>-1</v>
+        <v>-0.9482421875</v>
       </c>
       <c r="H62">
-        <v>-0.0099639892578125</v>
+        <v>-0.01078033447265625</v>
       </c>
       <c r="I62">
-        <v>-0.048309326171875</v>
+        <v>-0.104736328125</v>
       </c>
       <c r="J62">
-        <v>4.786252975463867E-05</v>
+        <v>0.1783447265625</v>
       </c>
       <c r="K62">
-        <v>-1</v>
+        <v>-0.9833984375</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3026,34 +3026,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.05615234375</v>
+        <v>0.0196990966796875</v>
       </c>
       <c r="C63">
-        <v>-0.0977783203125</v>
+        <v>0.26416015625</v>
       </c>
       <c r="D63">
-        <v>0.0202178955078125</v>
+        <v>-0.0258941650390625</v>
       </c>
       <c r="E63">
-        <v>-0.884765625</v>
+        <v>-0.6845703125</v>
       </c>
       <c r="F63">
-        <v>-0.03338623046875</v>
+        <v>-0.0303192138671875</v>
       </c>
       <c r="G63">
-        <v>-1</v>
+        <v>-0.9365234375</v>
       </c>
       <c r="H63">
-        <v>-0.03509521484375</v>
+        <v>-0.003753662109375</v>
       </c>
       <c r="I63">
-        <v>-0.03338623046875</v>
+        <v>-0.0303192138671875</v>
       </c>
       <c r="J63">
-        <v>-0.1627197265625</v>
+        <v>-0.70068359375</v>
       </c>
       <c r="K63">
-        <v>-1</v>
+        <v>-0.7138671875</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3061,34 +3061,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.056884765625</v>
+        <v>-0.030487060546875</v>
       </c>
       <c r="C64">
-        <v>0.104248046875</v>
+        <v>0.0714111328125</v>
       </c>
       <c r="D64">
-        <v>-0.049041748046875</v>
+        <v>0.0091705322265625</v>
       </c>
       <c r="E64">
-        <v>-0.439697265625</v>
+        <v>-0.6455078125</v>
       </c>
       <c r="F64">
-        <v>-0.039581298828125</v>
+        <v>0.019134521484375</v>
       </c>
       <c r="G64">
-        <v>-1</v>
+        <v>-0.7333984375</v>
       </c>
       <c r="H64">
-        <v>0.038482666015625</v>
+        <v>0.039459228515625</v>
       </c>
       <c r="I64">
-        <v>-0.039581298828125</v>
+        <v>0.019134521484375</v>
       </c>
       <c r="J64">
-        <v>0.091064453125</v>
+        <v>-0.3466796875</v>
       </c>
       <c r="K64">
-        <v>-1</v>
+        <v>-0.9560546875</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3096,34 +3096,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.024322509765625</v>
+        <v>0.1915283203125</v>
       </c>
       <c r="C65">
-        <v>-0.11090087890625</v>
+        <v>-0.2413330078125</v>
       </c>
       <c r="D65">
-        <v>0.023529052734375</v>
+        <v>0.03240966796875</v>
       </c>
       <c r="E65">
-        <v>-0.185791015625</v>
+        <v>-0.236328125</v>
       </c>
       <c r="F65">
-        <v>0.014312744140625</v>
+        <v>0.01357269287109375</v>
       </c>
       <c r="G65">
-        <v>-0.88427734375</v>
+        <v>-0.8369140625</v>
       </c>
       <c r="H65">
-        <v>-0.01953125</v>
+        <v>0.0142669677734375</v>
       </c>
       <c r="I65">
-        <v>0.014312744140625</v>
+        <v>0.01357269287109375</v>
       </c>
       <c r="J65">
-        <v>-0.0511474609375</v>
+        <v>-0.09820556640625</v>
       </c>
       <c r="K65">
-        <v>-1</v>
+        <v>-0.32568359375</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3131,34 +3131,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01485443115234375</v>
+        <v>0.183349609375</v>
       </c>
       <c r="C66">
-        <v>-0.037139892578125</v>
+        <v>0.07086181640625</v>
       </c>
       <c r="D66">
-        <v>0.01114654541015625</v>
+        <v>-0.01373291015625</v>
       </c>
       <c r="E66">
-        <v>0.06597900390625</v>
+        <v>0.5869140625</v>
       </c>
       <c r="F66">
-        <v>-0.0002582073211669922</v>
+        <v>0.039093017578125</v>
       </c>
       <c r="G66">
-        <v>-0.66748046875</v>
+        <v>-0.96630859375</v>
       </c>
       <c r="H66">
-        <v>-0.0087738037109375</v>
+        <v>-0.0740966796875</v>
       </c>
       <c r="I66">
-        <v>-0.0002582073211669922</v>
+        <v>0.039093017578125</v>
       </c>
       <c r="J66">
-        <v>0.01313018798828125</v>
+        <v>0.2047119140625</v>
       </c>
       <c r="K66">
-        <v>-0.459716796875</v>
+        <v>0.7568359375</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3166,34 +3166,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01465606689453125</v>
+        <v>0.004589080810546875</v>
       </c>
       <c r="C67">
-        <v>0.003427505493164062</v>
+        <v>0.11029052734375</v>
       </c>
       <c r="D67">
-        <v>0.0009284019470214844</v>
+        <v>-0.0280303955078125</v>
       </c>
       <c r="E67">
-        <v>-0.008087158203125</v>
+        <v>-0.378662109375</v>
       </c>
       <c r="F67">
-        <v>0.0074615478515625</v>
+        <v>-0.04083251953125</v>
       </c>
       <c r="G67">
-        <v>-0.4912109375</v>
+        <v>-0.86669921875</v>
       </c>
       <c r="H67">
-        <v>0.004299163818359375</v>
+        <v>-0.0357666015625</v>
       </c>
       <c r="I67">
-        <v>0.0074615478515625</v>
+        <v>-0.04083251953125</v>
       </c>
       <c r="J67">
-        <v>0.004062652587890625</v>
+        <v>-0.57373046875</v>
       </c>
       <c r="K67">
-        <v>-0.998046875</v>
+        <v>-0.9619140625</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3201,34 +3201,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.12841796875</v>
+        <v>0.185546875</v>
       </c>
       <c r="C68">
-        <v>0.1405029296875</v>
+        <v>-0.07379150390625</v>
       </c>
       <c r="D68">
-        <v>0.004596710205078125</v>
+        <v>-0.0968017578125</v>
       </c>
       <c r="E68">
-        <v>0.1614990234375</v>
+        <v>-0.2430419921875</v>
       </c>
       <c r="F68">
-        <v>-0.03369140625</v>
+        <v>-0.1484375</v>
       </c>
       <c r="G68">
-        <v>-1</v>
+        <v>-0.892578125</v>
       </c>
       <c r="H68">
-        <v>-0.00438690185546875</v>
+        <v>-0.06658935546875</v>
       </c>
       <c r="I68">
-        <v>-0.03369140625</v>
+        <v>-0.1484375</v>
       </c>
       <c r="J68">
-        <v>0.10955810546875</v>
+        <v>0.2685546875</v>
       </c>
       <c r="K68">
-        <v>0.6220703125</v>
+        <v>0.64599609375</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3236,34 +3236,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0172119140625</v>
+        <v>-0.0231475830078125</v>
       </c>
       <c r="C69">
-        <v>0.042022705078125</v>
+        <v>0.1099853515625</v>
       </c>
       <c r="D69">
-        <v>-0.0077056884765625</v>
+        <v>-0.01416015625</v>
       </c>
       <c r="E69">
-        <v>-0.26611328125</v>
+        <v>-0.521484375</v>
       </c>
       <c r="F69">
-        <v>-0.004451751708984375</v>
+        <v>-0.06854248046875</v>
       </c>
       <c r="G69">
-        <v>-0.489013671875</v>
+        <v>-0.67236328125</v>
       </c>
       <c r="H69">
-        <v>-0.001940727233886719</v>
+        <v>0.060882568359375</v>
       </c>
       <c r="I69">
-        <v>-0.004451751708984375</v>
+        <v>-0.06854248046875</v>
       </c>
       <c r="J69">
-        <v>-0.089599609375</v>
+        <v>-0.1973876953125</v>
       </c>
       <c r="K69">
-        <v>-0.9990234375</v>
+        <v>-0.91259765625</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3271,34 +3271,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.06390380859375</v>
+        <v>0.128662109375</v>
       </c>
       <c r="C70">
-        <v>-0.348388671875</v>
+        <v>-0.54345703125</v>
       </c>
       <c r="D70">
-        <v>0.07830810546875</v>
+        <v>0.140380859375</v>
       </c>
       <c r="E70">
-        <v>-0.98046875</v>
+        <v>-0.46630859375</v>
       </c>
       <c r="F70">
-        <v>0.06683349609375</v>
+        <v>0.1541748046875</v>
       </c>
       <c r="G70">
-        <v>-1</v>
+        <v>-0.98095703125</v>
       </c>
       <c r="H70">
-        <v>-0.0251312255859375</v>
+        <v>-0.05426025390625</v>
       </c>
       <c r="I70">
-        <v>0.06683349609375</v>
+        <v>0.1541748046875</v>
       </c>
       <c r="J70">
-        <v>0.240234375</v>
+        <v>-0.3310546875</v>
       </c>
       <c r="K70">
-        <v>-1</v>
+        <v>-0.9248046875</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3306,34 +3306,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0090179443359375</v>
+        <v>0.06365966796875</v>
       </c>
       <c r="C71">
-        <v>-0.0255279541015625</v>
+        <v>-0.0218505859375</v>
       </c>
       <c r="D71">
-        <v>0.0193023681640625</v>
+        <v>0.06982421875</v>
       </c>
       <c r="E71">
-        <v>-0.0721435546875</v>
+        <v>-0.09014892578125</v>
       </c>
       <c r="F71">
-        <v>-0.007808685302734375</v>
+        <v>0.0601806640625</v>
       </c>
       <c r="G71">
-        <v>-0.6005859375</v>
+        <v>-0.9404296875</v>
       </c>
       <c r="H71">
-        <v>-0.0250091552734375</v>
+        <v>0.0390625</v>
       </c>
       <c r="I71">
-        <v>-0.007808685302734375</v>
+        <v>0.0601806640625</v>
       </c>
       <c r="J71">
-        <v>-0.08660888671875</v>
+        <v>0.006305694580078125</v>
       </c>
       <c r="K71">
-        <v>0.29443359375</v>
+        <v>0.6962890625</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3341,34 +3341,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.02911376953125</v>
+        <v>0.1920166015625</v>
       </c>
       <c r="C72">
-        <v>-0.0223541259765625</v>
+        <v>0.11029052734375</v>
       </c>
       <c r="D72">
-        <v>0.002893447875976562</v>
+        <v>0.046844482421875</v>
       </c>
       <c r="E72">
-        <v>0.10369873046875</v>
+        <v>-0.7998046875</v>
       </c>
       <c r="F72">
-        <v>0.00981903076171875</v>
+        <v>0.00417327880859375</v>
       </c>
       <c r="G72">
-        <v>-0.62255859375</v>
+        <v>-0.95458984375</v>
       </c>
       <c r="H72">
-        <v>0.0023956298828125</v>
+        <v>-0.05419921875</v>
       </c>
       <c r="I72">
-        <v>0.00981903076171875</v>
+        <v>0.00417327880859375</v>
       </c>
       <c r="J72">
-        <v>0.0284881591796875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="K72">
-        <v>-0.99853515625</v>
+        <v>-0.93798828125</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3376,34 +3376,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.06793212890625</v>
+        <v>-0.271484375</v>
       </c>
       <c r="C73">
-        <v>0.09112548828125</v>
+        <v>0.2032470703125</v>
       </c>
       <c r="D73">
-        <v>-0.02886962890625</v>
+        <v>-0.029632568359375</v>
       </c>
       <c r="E73">
-        <v>-0.3779296875</v>
+        <v>-0.456298828125</v>
       </c>
       <c r="F73">
-        <v>-0.03326416015625</v>
+        <v>-0.07501220703125</v>
       </c>
       <c r="G73">
-        <v>-0.98095703125</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="H73">
-        <v>0.007709503173828125</v>
+        <v>0.0675048828125</v>
       </c>
       <c r="I73">
-        <v>-0.03326416015625</v>
+        <v>-0.07501220703125</v>
       </c>
       <c r="J73">
-        <v>-0.09234619140625</v>
+        <v>-0.133056640625</v>
       </c>
       <c r="K73">
-        <v>-1</v>
+        <v>-0.99853515625</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3411,34 +3411,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.05078125</v>
+        <v>0.0207977294921875</v>
       </c>
       <c r="C74">
-        <v>0.0440673828125</v>
+        <v>-0.17919921875</v>
       </c>
       <c r="D74">
-        <v>-0.00933837890625</v>
+        <v>0.02484130859375</v>
       </c>
       <c r="E74">
-        <v>-0.0302886962890625</v>
+        <v>-0.41064453125</v>
       </c>
       <c r="F74">
-        <v>-0.035797119140625</v>
+        <v>-0.05389404296875</v>
       </c>
       <c r="G74">
-        <v>0.37646484375</v>
+        <v>-0.89892578125</v>
       </c>
       <c r="H74">
-        <v>-0.01102447509765625</v>
+        <v>-0.045440673828125</v>
       </c>
       <c r="I74">
-        <v>-0.035797119140625</v>
+        <v>-0.05389404296875</v>
       </c>
       <c r="J74">
-        <v>-0.095947265625</v>
+        <v>0.2236328125</v>
       </c>
       <c r="K74">
-        <v>-1</v>
+        <v>-0.7177734375</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3446,34 +3446,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0182952880859375</v>
+        <v>-0.595703125</v>
       </c>
       <c r="C75">
-        <v>0.019287109375</v>
+        <v>-0.09466552734375</v>
       </c>
       <c r="D75">
-        <v>-0.00534820556640625</v>
+        <v>-0.0240631103515625</v>
       </c>
       <c r="E75">
-        <v>-0.047119140625</v>
+        <v>-0.482177734375</v>
       </c>
       <c r="F75">
-        <v>-0.005901336669921875</v>
+        <v>0.029052734375</v>
       </c>
       <c r="G75">
-        <v>-0.057769775390625</v>
+        <v>-0.46044921875</v>
       </c>
       <c r="H75">
-        <v>0.001801490783691406</v>
+        <v>-0.055816650390625</v>
       </c>
       <c r="I75">
-        <v>-0.005901336669921875</v>
+        <v>0.029052734375</v>
       </c>
       <c r="J75">
-        <v>-0.01132965087890625</v>
+        <v>-0.14111328125</v>
       </c>
       <c r="K75">
-        <v>-0.94873046875</v>
+        <v>-0.9189453125</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3481,34 +3481,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0477294921875</v>
+        <v>0.1695556640625</v>
       </c>
       <c r="C76">
-        <v>-0.045318603515625</v>
+        <v>0.168701171875</v>
       </c>
       <c r="D76">
-        <v>0.01255035400390625</v>
+        <v>-0.0006961822509765625</v>
       </c>
       <c r="E76">
-        <v>0.06805419921875</v>
+        <v>-0.478515625</v>
       </c>
       <c r="F76">
-        <v>0.0309295654296875</v>
+        <v>-0.002819061279296875</v>
       </c>
       <c r="G76">
-        <v>-0.53271484375</v>
+        <v>-0.91748046875</v>
       </c>
       <c r="H76">
-        <v>-0.0008754730224609375</v>
+        <v>0.040771484375</v>
       </c>
       <c r="I76">
-        <v>0.0309295654296875</v>
+        <v>-0.002819061279296875</v>
       </c>
       <c r="J76">
-        <v>0.0072784423828125</v>
+        <v>0.398193359375</v>
       </c>
       <c r="K76">
-        <v>-0.9990234375</v>
+        <v>-0.89404296875</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3516,34 +3516,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.07891845703125</v>
+        <v>0.03741455078125</v>
       </c>
       <c r="C77">
-        <v>0.03363037109375</v>
+        <v>-0.10638427734375</v>
       </c>
       <c r="D77">
-        <v>-0.03656005859375</v>
+        <v>-0.075439453125</v>
       </c>
       <c r="E77">
-        <v>-0.77490234375</v>
+        <v>-0.8916015625</v>
       </c>
       <c r="F77">
-        <v>-0.044281005859375</v>
+        <v>-0.09637451171875</v>
       </c>
       <c r="G77">
-        <v>-1</v>
+        <v>-0.93310546875</v>
       </c>
       <c r="H77">
-        <v>0.027984619140625</v>
+        <v>0.0950927734375</v>
       </c>
       <c r="I77">
-        <v>-0.044281005859375</v>
+        <v>-0.09637451171875</v>
       </c>
       <c r="J77">
-        <v>0.175048828125</v>
+        <v>0.30712890625</v>
       </c>
       <c r="K77">
-        <v>-1</v>
+        <v>-0.86376953125</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3551,34 +3551,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.02313232421875</v>
+        <v>0.032562255859375</v>
       </c>
       <c r="C78">
-        <v>0.11712646484375</v>
+        <v>0.283447265625</v>
       </c>
       <c r="D78">
-        <v>-0.007904052734375</v>
+        <v>-0.037506103515625</v>
       </c>
       <c r="E78">
-        <v>-0.110107421875</v>
+        <v>0.2078857421875</v>
       </c>
       <c r="F78">
-        <v>-0.097412109375</v>
+        <v>-0.017425537109375</v>
       </c>
       <c r="G78">
-        <v>-1</v>
+        <v>-0.99365234375</v>
       </c>
       <c r="H78">
-        <v>-0.0199127197265625</v>
+        <v>-0.050506591796875</v>
       </c>
       <c r="I78">
-        <v>-0.097412109375</v>
+        <v>-0.017425537109375</v>
       </c>
       <c r="J78">
-        <v>0.0236053466796875</v>
+        <v>-0.4091796875</v>
       </c>
       <c r="K78">
-        <v>-0.79931640625</v>
+        <v>-0.9921875</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3586,34 +3586,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0236053466796875</v>
+        <v>0.07427978515625</v>
       </c>
       <c r="C79">
-        <v>0.113525390625</v>
+        <v>0.21923828125</v>
       </c>
       <c r="D79">
-        <v>-0.0262298583984375</v>
+        <v>-0.057861328125</v>
       </c>
       <c r="E79">
-        <v>-0.5615234375</v>
+        <v>-0.5009765625</v>
       </c>
       <c r="F79">
-        <v>-0.043304443359375</v>
+        <v>-0.12066650390625</v>
       </c>
       <c r="G79">
-        <v>-1</v>
+        <v>-0.66259765625</v>
       </c>
       <c r="H79">
-        <v>0.01010894775390625</v>
+        <v>0.044952392578125</v>
       </c>
       <c r="I79">
-        <v>-0.043304443359375</v>
+        <v>-0.12066650390625</v>
       </c>
       <c r="J79">
-        <v>-0.01143646240234375</v>
+        <v>-0.424560546875</v>
       </c>
       <c r="K79">
-        <v>-1</v>
+        <v>-0.97705078125</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3621,34 +3621,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.00786590576171875</v>
+        <v>0.1298828125</v>
       </c>
       <c r="C80">
-        <v>0.05316162109375</v>
+        <v>0.1099853515625</v>
       </c>
       <c r="D80">
-        <v>-0.0088043212890625</v>
+        <v>0.00287628173828125</v>
       </c>
       <c r="E80">
-        <v>-0.3193359375</v>
+        <v>-0.436279296875</v>
       </c>
       <c r="F80">
-        <v>-0.03155517578125</v>
+        <v>-0.2064208984375</v>
       </c>
       <c r="G80">
-        <v>-0.9853515625</v>
+        <v>-0.78759765625</v>
       </c>
       <c r="H80">
-        <v>-0.004222869873046875</v>
+        <v>-0.036712646484375</v>
       </c>
       <c r="I80">
-        <v>-0.03155517578125</v>
+        <v>-0.2064208984375</v>
       </c>
       <c r="J80">
-        <v>-0.06573486328125</v>
+        <v>-0.03594970703125</v>
       </c>
       <c r="K80">
-        <v>-1</v>
+        <v>-0.21337890625</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3656,34 +3656,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0164947509765625</v>
+        <v>-0.0196533203125</v>
       </c>
       <c r="C81">
-        <v>0.03387451171875</v>
+        <v>0.01348876953125</v>
       </c>
       <c r="D81">
-        <v>-0.0001769065856933594</v>
+        <v>-0.0065765380859375</v>
       </c>
       <c r="E81">
-        <v>-0.239990234375</v>
+        <v>0.09466552734375</v>
       </c>
       <c r="F81">
-        <v>-0.003204345703125</v>
+        <v>-0.0369873046875</v>
       </c>
       <c r="G81">
-        <v>-0.341552734375</v>
+        <v>-0.57080078125</v>
       </c>
       <c r="H81">
-        <v>-0.0094451904296875</v>
+        <v>-0.0240020751953125</v>
       </c>
       <c r="I81">
-        <v>-0.003204345703125</v>
+        <v>-0.0369873046875</v>
       </c>
       <c r="J81">
-        <v>-0.11297607421875</v>
+        <v>0.241943359375</v>
       </c>
       <c r="K81">
-        <v>-0.99169921875</v>
+        <v>-0.78076171875</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3691,34 +3691,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.04656982421875</v>
+        <v>0.06707763671875</v>
       </c>
       <c r="C82">
-        <v>0.03656005859375</v>
+        <v>0.325439453125</v>
       </c>
       <c r="D82">
-        <v>-0.002817153930664062</v>
+        <v>-0.052642822265625</v>
       </c>
       <c r="E82">
-        <v>-0.130859375</v>
+        <v>-0.1695556640625</v>
       </c>
       <c r="F82">
-        <v>-0.056396484375</v>
+        <v>-0.007259368896484375</v>
       </c>
       <c r="G82">
-        <v>-0.457763671875</v>
+        <v>-0.7900390625</v>
       </c>
       <c r="H82">
-        <v>-0.025909423828125</v>
+        <v>-0.047119140625</v>
       </c>
       <c r="I82">
-        <v>-0.056396484375</v>
+        <v>-0.007259368896484375</v>
       </c>
       <c r="J82">
-        <v>-0.12457275390625</v>
+        <v>-0.7119140625</v>
       </c>
       <c r="K82">
-        <v>-0.99951171875</v>
+        <v>-0.85693359375</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3726,34 +3726,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.01432037353515625</v>
+        <v>0.050506591796875</v>
       </c>
       <c r="C83">
-        <v>0.005039215087890625</v>
+        <v>0.0948486328125</v>
       </c>
       <c r="D83">
-        <v>0.001506805419921875</v>
+        <v>-0.00951385498046875</v>
       </c>
       <c r="E83">
-        <v>-0.113525390625</v>
+        <v>-0.404296875</v>
       </c>
       <c r="F83">
-        <v>-0.016693115234375</v>
+        <v>0.06488037109375</v>
       </c>
       <c r="G83">
-        <v>-0.68359375</v>
+        <v>-0.99560546875</v>
       </c>
       <c r="H83">
-        <v>-0.005828857421875</v>
+        <v>0.01727294921875</v>
       </c>
       <c r="I83">
-        <v>-0.016693115234375</v>
+        <v>0.06488037109375</v>
       </c>
       <c r="J83">
-        <v>-0.019989013671875</v>
+        <v>-0.092041015625</v>
       </c>
       <c r="K83">
-        <v>-0.5458984375</v>
+        <v>-0.9375</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3761,34 +3761,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01216888427734375</v>
+        <v>-0.071044921875</v>
       </c>
       <c r="C84">
-        <v>-0.029876708984375</v>
+        <v>0.01910400390625</v>
       </c>
       <c r="D84">
-        <v>0.002605438232421875</v>
+        <v>0.061431884765625</v>
       </c>
       <c r="E84">
-        <v>-0.6416015625</v>
+        <v>-0.8662109375</v>
       </c>
       <c r="F84">
-        <v>0.01430511474609375</v>
+        <v>-0.014007568359375</v>
       </c>
       <c r="G84">
-        <v>-1</v>
+        <v>-0.7626953125</v>
       </c>
       <c r="H84">
-        <v>0.01207733154296875</v>
+        <v>-0.02777099609375</v>
       </c>
       <c r="I84">
-        <v>0.01430511474609375</v>
+        <v>-0.014007568359375</v>
       </c>
       <c r="J84">
-        <v>0.09820556640625</v>
+        <v>0.336669921875</v>
       </c>
       <c r="K84">
-        <v>-1</v>
+        <v>-0.642578125</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3796,34 +3796,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.056488037109375</v>
+        <v>0.135009765625</v>
       </c>
       <c r="C85">
-        <v>-0.09063720703125</v>
+        <v>-0.10821533203125</v>
       </c>
       <c r="D85">
-        <v>0.00820159912109375</v>
+        <v>0.0207061767578125</v>
       </c>
       <c r="E85">
-        <v>0.009735107421875</v>
+        <v>-0.132568359375</v>
       </c>
       <c r="F85">
-        <v>0.003854751586914062</v>
+        <v>-0.0213623046875</v>
       </c>
       <c r="G85">
-        <v>-0.99951171875</v>
+        <v>-0.98388671875</v>
       </c>
       <c r="H85">
-        <v>0.006866455078125</v>
+        <v>0.01126861572265625</v>
       </c>
       <c r="I85">
-        <v>0.003854751586914062</v>
+        <v>-0.0213623046875</v>
       </c>
       <c r="J85">
-        <v>0.177001953125</v>
+        <v>0.15576171875</v>
       </c>
       <c r="K85">
-        <v>-1</v>
+        <v>-0.84814453125</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3831,34 +3831,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.052734375</v>
+        <v>0.280517578125</v>
       </c>
       <c r="C86">
-        <v>0.1177978515625</v>
+        <v>0.1756591796875</v>
       </c>
       <c r="D86">
-        <v>-0.0264892578125</v>
+        <v>0.039306640625</v>
       </c>
       <c r="E86">
-        <v>-0.21875</v>
+        <v>-0.63671875</v>
       </c>
       <c r="F86">
-        <v>-0.0390625</v>
+        <v>-0.0943603515625</v>
       </c>
       <c r="G86">
-        <v>-1</v>
+        <v>-0.91015625</v>
       </c>
       <c r="H86">
-        <v>0.0212860107421875</v>
+        <v>0.050506591796875</v>
       </c>
       <c r="I86">
-        <v>-0.0390625</v>
+        <v>-0.0943603515625</v>
       </c>
       <c r="J86">
-        <v>0.1435546875</v>
+        <v>-0.09808349609375</v>
       </c>
       <c r="K86">
-        <v>-0.99951171875</v>
+        <v>-0.80224609375</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3866,34 +3866,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.0200347900390625</v>
+        <v>0.1689453125</v>
       </c>
       <c r="C87">
-        <v>0.049774169921875</v>
+        <v>-0.1514892578125</v>
       </c>
       <c r="D87">
-        <v>-0.001711845397949219</v>
+        <v>0.07940673828125</v>
       </c>
       <c r="E87">
-        <v>-0.31640625</v>
+        <v>-0.2408447265625</v>
       </c>
       <c r="F87">
-        <v>-0.0491943359375</v>
+        <v>0.049407958984375</v>
       </c>
       <c r="G87">
-        <v>-0.9990234375</v>
+        <v>-0.99853515625</v>
       </c>
       <c r="H87">
-        <v>-0.01108551025390625</v>
+        <v>-0.03106689453125</v>
       </c>
       <c r="I87">
-        <v>-0.0491943359375</v>
+        <v>0.049407958984375</v>
       </c>
       <c r="J87">
-        <v>-0.0089111328125</v>
+        <v>0.06329345703125</v>
       </c>
       <c r="K87">
-        <v>-0.42041015625</v>
+        <v>-0.78662109375</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3901,34 +3901,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0225677490234375</v>
+        <v>-0.1104736328125</v>
       </c>
       <c r="C88">
-        <v>0.044189453125</v>
+        <v>-0.038970947265625</v>
       </c>
       <c r="D88">
-        <v>-0.01360321044921875</v>
+        <v>-0.044281005859375</v>
       </c>
       <c r="E88">
-        <v>-0.424072265625</v>
+        <v>-0.383544921875</v>
       </c>
       <c r="F88">
-        <v>-0.01155853271484375</v>
+        <v>-0.0229034423828125</v>
       </c>
       <c r="G88">
-        <v>-0.9033203125</v>
+        <v>-0.970703125</v>
       </c>
       <c r="H88">
-        <v>0.0008320808410644531</v>
+        <v>0.0872802734375</v>
       </c>
       <c r="I88">
-        <v>-0.01155853271484375</v>
+        <v>-0.0229034423828125</v>
       </c>
       <c r="J88">
-        <v>-0.095458984375</v>
+        <v>-0.15234375</v>
       </c>
       <c r="K88">
-        <v>-1</v>
+        <v>-0.986328125</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3936,34 +3936,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01303863525390625</v>
+        <v>0.08184814453125</v>
       </c>
       <c r="C89">
-        <v>0.060272216796875</v>
+        <v>-0.027618408203125</v>
       </c>
       <c r="D89">
-        <v>-0.00986480712890625</v>
+        <v>0.003553390502929688</v>
       </c>
       <c r="E89">
-        <v>0.09454345703125</v>
+        <v>-0.2333984375</v>
       </c>
       <c r="F89">
-        <v>-0.053253173828125</v>
+        <v>-0.075927734375</v>
       </c>
       <c r="G89">
-        <v>-0.9580078125</v>
+        <v>-0.9658203125</v>
       </c>
       <c r="H89">
-        <v>-0.001741409301757812</v>
+        <v>-0.0186004638671875</v>
       </c>
       <c r="I89">
-        <v>-0.053253173828125</v>
+        <v>-0.075927734375</v>
       </c>
       <c r="J89">
-        <v>0.039642333984375</v>
+        <v>-0.11175537109375</v>
       </c>
       <c r="K89">
-        <v>-0.99609375</v>
+        <v>-0.95703125</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3971,34 +3971,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.05694580078125</v>
+        <v>-0.08978271484375</v>
       </c>
       <c r="C90">
-        <v>-0.031585693359375</v>
+        <v>0.130615234375</v>
       </c>
       <c r="D90">
-        <v>0.0268096923828125</v>
+        <v>-0.0150604248046875</v>
       </c>
       <c r="E90">
-        <v>-0.09161376953125</v>
+        <v>-0.36376953125</v>
       </c>
       <c r="F90">
-        <v>0.0487060546875</v>
+        <v>0.039276123046875</v>
       </c>
       <c r="G90">
-        <v>-0.9990234375</v>
+        <v>-0.29736328125</v>
       </c>
       <c r="H90">
-        <v>-0.006336212158203125</v>
+        <v>0.0003762245178222656</v>
       </c>
       <c r="I90">
-        <v>0.0487060546875</v>
+        <v>0.039276123046875</v>
       </c>
       <c r="J90">
-        <v>0.032623291015625</v>
+        <v>-0.5556640625</v>
       </c>
       <c r="K90">
-        <v>-0.7021484375</v>
+        <v>-0.9716796875</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4006,34 +4006,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.07470703125</v>
+        <v>-0.487548828125</v>
       </c>
       <c r="C91">
-        <v>0.0772705078125</v>
+        <v>0.1705322265625</v>
       </c>
       <c r="D91">
-        <v>-0.00682830810546875</v>
+        <v>-0.10888671875</v>
       </c>
       <c r="E91">
-        <v>0.2039794921875</v>
+        <v>0.2490234375</v>
       </c>
       <c r="F91">
-        <v>-0.018768310546875</v>
+        <v>-0.049041748046875</v>
       </c>
       <c r="G91">
-        <v>-0.273193359375</v>
+        <v>-0.4150390625</v>
       </c>
       <c r="H91">
-        <v>0.0086669921875</v>
+        <v>0.0176849365234375</v>
       </c>
       <c r="I91">
-        <v>-0.018768310546875</v>
+        <v>-0.049041748046875</v>
       </c>
       <c r="J91">
-        <v>0.07623291015625</v>
+        <v>-0.26318359375</v>
       </c>
       <c r="K91">
-        <v>-0.841796875</v>
+        <v>-0.953125</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4041,34 +4041,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.03143310546875</v>
+        <v>0.22509765625</v>
       </c>
       <c r="C92">
-        <v>-0.210205078125</v>
+        <v>-0.1707763671875</v>
       </c>
       <c r="D92">
-        <v>0.035369873046875</v>
+        <v>0.09283447265625</v>
       </c>
       <c r="E92">
-        <v>-0.7470703125</v>
+        <v>-0.85986328125</v>
       </c>
       <c r="F92">
-        <v>-0.0117340087890625</v>
+        <v>-0.06304931640625</v>
       </c>
       <c r="G92">
-        <v>-1</v>
+        <v>-0.9990234375</v>
       </c>
       <c r="H92">
-        <v>-0.01247406005859375</v>
+        <v>-0.057525634765625</v>
       </c>
       <c r="I92">
-        <v>-0.0117340087890625</v>
+        <v>-0.06304931640625</v>
       </c>
       <c r="J92">
-        <v>0.25927734375</v>
+        <v>0.393310546875</v>
       </c>
       <c r="K92">
-        <v>-1</v>
+        <v>-0.85595703125</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4076,34 +4076,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.00836181640625</v>
+        <v>0.1885986328125</v>
       </c>
       <c r="C93">
-        <v>0.039306640625</v>
+        <v>0.07183837890625</v>
       </c>
       <c r="D93">
-        <v>-0.005035400390625</v>
+        <v>0.0005998611450195312</v>
       </c>
       <c r="E93">
-        <v>-0.38232421875</v>
+        <v>0.003925323486328125</v>
       </c>
       <c r="F93">
-        <v>-0.00435638427734375</v>
+        <v>0.018310546875</v>
       </c>
       <c r="G93">
-        <v>-0.79345703125</v>
+        <v>0.053436279296875</v>
       </c>
       <c r="H93">
-        <v>-0.00336456298828125</v>
+        <v>0.06195068359375</v>
       </c>
       <c r="I93">
-        <v>-0.00435638427734375</v>
+        <v>0.018310546875</v>
       </c>
       <c r="J93">
-        <v>-0.0928955078125</v>
+        <v>-0.09423828125</v>
       </c>
       <c r="K93">
-        <v>-0.99609375</v>
+        <v>-0.87158203125</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4111,34 +4111,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0265960693359375</v>
+        <v>0.544921875</v>
       </c>
       <c r="C94">
-        <v>-0.08050537109375</v>
+        <v>-0.337890625</v>
       </c>
       <c r="D94">
-        <v>-0.0002293586730957031</v>
+        <v>0.0130157470703125</v>
       </c>
       <c r="E94">
-        <v>-0.57666015625</v>
+        <v>-0.40966796875</v>
       </c>
       <c r="F94">
-        <v>-0.0404052734375</v>
+        <v>-0.055419921875</v>
       </c>
       <c r="G94">
-        <v>-1</v>
+        <v>-0.84228515625</v>
       </c>
       <c r="H94">
-        <v>-0.002225875854492188</v>
+        <v>-0.0249176025390625</v>
       </c>
       <c r="I94">
-        <v>-0.0404052734375</v>
+        <v>-0.055419921875</v>
       </c>
       <c r="J94">
-        <v>0.1551513671875</v>
+        <v>-0.382568359375</v>
       </c>
       <c r="K94">
-        <v>-1</v>
+        <v>-0.96728515625</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4146,34 +4146,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.05078125</v>
+        <v>-0.300537109375</v>
       </c>
       <c r="C95">
-        <v>-0.0252685546875</v>
+        <v>-0.11700439453125</v>
       </c>
       <c r="D95">
-        <v>0.005847930908203125</v>
+        <v>0.0516357421875</v>
       </c>
       <c r="E95">
-        <v>0.1080322265625</v>
+        <v>-0.64208984375</v>
       </c>
       <c r="F95">
-        <v>-0.0285186767578125</v>
+        <v>0.091796875</v>
       </c>
       <c r="G95">
-        <v>0.1689453125</v>
+        <v>-0.032623291015625</v>
       </c>
       <c r="H95">
-        <v>-0.0186614990234375</v>
+        <v>-0.07574462890625</v>
       </c>
       <c r="I95">
-        <v>-0.0285186767578125</v>
+        <v>0.091796875</v>
       </c>
       <c r="J95">
-        <v>-0.045562744140625</v>
+        <v>-0.339599609375</v>
       </c>
       <c r="K95">
-        <v>-0.998046875</v>
+        <v>-0.71142578125</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4181,34 +4181,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.06671142578125</v>
+        <v>-0.0894775390625</v>
       </c>
       <c r="C96">
-        <v>-0.04010009765625</v>
+        <v>-0.13671875</v>
       </c>
       <c r="D96">
-        <v>-0.00640106201171875</v>
+        <v>0.022003173828125</v>
       </c>
       <c r="E96">
-        <v>-0.13818359375</v>
+        <v>-0.54248046875</v>
       </c>
       <c r="F96">
-        <v>0.0068359375</v>
+        <v>0.0836181640625</v>
       </c>
       <c r="G96">
-        <v>-0.8984375</v>
+        <v>-0.86279296875</v>
       </c>
       <c r="H96">
-        <v>0.0082244873046875</v>
+        <v>-0.0743408203125</v>
       </c>
       <c r="I96">
-        <v>0.0068359375</v>
+        <v>0.0836181640625</v>
       </c>
       <c r="J96">
-        <v>0.042724609375</v>
+        <v>0.1158447265625</v>
       </c>
       <c r="K96">
-        <v>-1</v>
+        <v>-0.7763671875</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4216,34 +4216,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.023895263671875</v>
+        <v>-0.2200927734375</v>
       </c>
       <c r="C97">
-        <v>0.054290771484375</v>
+        <v>0.083984375</v>
       </c>
       <c r="D97">
-        <v>-0.00917816162109375</v>
+        <v>-0.05950927734375</v>
       </c>
       <c r="E97">
-        <v>-0.06707763671875</v>
+        <v>-0.38427734375</v>
       </c>
       <c r="F97">
-        <v>-0.034912109375</v>
+        <v>-0.1302490234375</v>
       </c>
       <c r="G97">
-        <v>-0.12469482421875</v>
+        <v>0.59033203125</v>
       </c>
       <c r="H97">
-        <v>0.0002453327178955078</v>
+        <v>0.0184326171875</v>
       </c>
       <c r="I97">
-        <v>-0.034912109375</v>
+        <v>-0.1302490234375</v>
       </c>
       <c r="J97">
-        <v>0.006092071533203125</v>
+        <v>-0.196533203125</v>
       </c>
       <c r="K97">
-        <v>-0.68310546875</v>
+        <v>-0.666015625</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4251,34 +4251,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.036376953125</v>
+        <v>0.1385498046875</v>
       </c>
       <c r="C98">
-        <v>-0.072021484375</v>
+        <v>-0.02838134765625</v>
       </c>
       <c r="D98">
-        <v>0.0007963180541992188</v>
+        <v>-0.0196685791015625</v>
       </c>
       <c r="E98">
-        <v>-0.287109375</v>
+        <v>-0.48046875</v>
       </c>
       <c r="F98">
-        <v>-0.003568649291992188</v>
+        <v>-0.040771484375</v>
       </c>
       <c r="G98">
-        <v>-1</v>
+        <v>-0.94140625</v>
       </c>
       <c r="H98">
-        <v>0.0009446144104003906</v>
+        <v>0.0014801025390625</v>
       </c>
       <c r="I98">
-        <v>-0.003568649291992188</v>
+        <v>-0.040771484375</v>
       </c>
       <c r="J98">
-        <v>0.07440185546875</v>
+        <v>0.23681640625</v>
       </c>
       <c r="K98">
-        <v>-1</v>
+        <v>-0.57470703125</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4286,34 +4286,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01259613037109375</v>
+        <v>-0.1878662109375</v>
       </c>
       <c r="C99">
-        <v>0.041351318359375</v>
+        <v>0.302978515625</v>
       </c>
       <c r="D99">
-        <v>-0.00435638427734375</v>
+        <v>0.03759765625</v>
       </c>
       <c r="E99">
-        <v>-0.16943359375</v>
+        <v>-0.290283203125</v>
       </c>
       <c r="F99">
-        <v>-0.0148162841796875</v>
+        <v>0.0203094482421875</v>
       </c>
       <c r="G99">
-        <v>-0.1807861328125</v>
+        <v>-0.71826171875</v>
       </c>
       <c r="H99">
-        <v>-0.002367019653320312</v>
+        <v>-0.07464599609375</v>
       </c>
       <c r="I99">
-        <v>-0.0148162841796875</v>
+        <v>0.0203094482421875</v>
       </c>
       <c r="J99">
-        <v>-0.04620361328125</v>
+        <v>-0.25341796875</v>
       </c>
       <c r="K99">
-        <v>-0.8857421875</v>
+        <v>-0.98876953125</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4321,34 +4321,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003704071044921875</v>
+        <v>-0.0576171875</v>
       </c>
       <c r="C100">
-        <v>0.0171051025390625</v>
+        <v>0.1328125</v>
       </c>
       <c r="D100">
-        <v>0.0025177001953125</v>
+        <v>0.0643310546875</v>
       </c>
       <c r="E100">
-        <v>-0.0297698974609375</v>
+        <v>0.1728515625</v>
       </c>
       <c r="F100">
-        <v>-0.018768310546875</v>
+        <v>0.038848876953125</v>
       </c>
       <c r="G100">
-        <v>0.474609375</v>
+        <v>0.5830078125</v>
       </c>
       <c r="H100">
-        <v>-0.00818634033203125</v>
+        <v>-0.05419921875</v>
       </c>
       <c r="I100">
-        <v>-0.018768310546875</v>
+        <v>0.038848876953125</v>
       </c>
       <c r="J100">
-        <v>-0.04107666015625</v>
+        <v>-0.058258056640625</v>
       </c>
       <c r="K100">
-        <v>-0.1219482421875</v>
+        <v>0.1927490234375</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4356,34 +4356,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.0003614425659179688</v>
+        <v>0.1275634765625</v>
       </c>
       <c r="C101">
-        <v>0.0791015625</v>
+        <v>0.08612060546875</v>
       </c>
       <c r="D101">
-        <v>-0.0288543701171875</v>
+        <v>-0.022125244140625</v>
       </c>
       <c r="E101">
-        <v>-0.61376953125</v>
+        <v>-0.75</v>
       </c>
       <c r="F101">
-        <v>-0.07489013671875</v>
+        <v>-0.1092529296875</v>
       </c>
       <c r="G101">
-        <v>-1</v>
+        <v>-0.9951171875</v>
       </c>
       <c r="H101">
-        <v>0.002599716186523438</v>
+        <v>0.05120849609375</v>
       </c>
       <c r="I101">
-        <v>-0.07489013671875</v>
+        <v>-0.1092529296875</v>
       </c>
       <c r="J101">
-        <v>-0.010467529296875</v>
+        <v>-0.0251617431640625</v>
       </c>
       <c r="K101">
-        <v>-1</v>
+        <v>-0.9736328125</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4391,34 +4391,34 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.026641845703125</v>
+        <v>-0.1502685546875</v>
       </c>
       <c r="C102">
-        <v>0.0560302734375</v>
+        <v>0.16796875</v>
       </c>
       <c r="D102">
-        <v>-0.002288818359375</v>
+        <v>-0.021087646484375</v>
       </c>
       <c r="E102">
-        <v>0.017059326171875</v>
+        <v>0.2137451171875</v>
       </c>
       <c r="F102">
-        <v>-0.011322021484375</v>
+        <v>-0.09405517578125</v>
       </c>
       <c r="G102">
-        <v>-0.67431640625</v>
+        <v>-0.9072265625</v>
       </c>
       <c r="H102">
-        <v>0.0086212158203125</v>
+        <v>-0.047821044921875</v>
       </c>
       <c r="I102">
-        <v>-0.011322021484375</v>
+        <v>-0.09405517578125</v>
       </c>
       <c r="J102">
-        <v>0.059295654296875</v>
+        <v>-0.2047119140625</v>
       </c>
       <c r="K102">
-        <v>-0.5908203125</v>
+        <v>-0.96533203125</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4426,34 +4426,34 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0286865234375</v>
+        <v>0.07867431640625</v>
       </c>
       <c r="C103">
-        <v>0.0307769775390625</v>
+        <v>0.1038818359375</v>
       </c>
       <c r="D103">
-        <v>0.007518768310546875</v>
+        <v>-0.0071563720703125</v>
       </c>
       <c r="E103">
-        <v>0.00586700439453125</v>
+        <v>-0.07183837890625</v>
       </c>
       <c r="F103">
-        <v>-0.001573562622070312</v>
+        <v>-0.003229141235351562</v>
       </c>
       <c r="G103">
-        <v>-0.94970703125</v>
+        <v>-0.96240234375</v>
       </c>
       <c r="H103">
-        <v>-0.002979278564453125</v>
+        <v>-0.077880859375</v>
       </c>
       <c r="I103">
-        <v>-0.001573562622070312</v>
+        <v>-0.003229141235351562</v>
       </c>
       <c r="J103">
-        <v>0.03460693359375</v>
+        <v>0.07232666015625</v>
       </c>
       <c r="K103">
-        <v>0.83447265625</v>
+        <v>0.99755859375</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4461,34 +4461,34 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.0148162841796875</v>
+        <v>-0.413330078125</v>
       </c>
       <c r="C104">
-        <v>0.019012451171875</v>
+        <v>-0.07275390625</v>
       </c>
       <c r="D104">
-        <v>-0.023284912109375</v>
+        <v>0.042327880859375</v>
       </c>
       <c r="E104">
-        <v>-0.288818359375</v>
+        <v>-0.8251953125</v>
       </c>
       <c r="F104">
-        <v>-0.06268310546875</v>
+        <v>0.0085296630859375</v>
       </c>
       <c r="G104">
-        <v>-1</v>
+        <v>-0.98583984375</v>
       </c>
       <c r="H104">
-        <v>0.01508331298828125</v>
+        <v>0.0914306640625</v>
       </c>
       <c r="I104">
-        <v>-0.06268310546875</v>
+        <v>0.0085296630859375</v>
       </c>
       <c r="J104">
-        <v>0.09039306640625</v>
+        <v>-0.2344970703125</v>
       </c>
       <c r="K104">
-        <v>-1</v>
+        <v>-0.6865234375</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4496,34 +4496,34 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.005710601806640625</v>
+        <v>-0.047332763671875</v>
       </c>
       <c r="C105">
-        <v>0.1058349609375</v>
+        <v>-0.036773681640625</v>
       </c>
       <c r="D105">
-        <v>-0.030120849609375</v>
+        <v>0.01218414306640625</v>
       </c>
       <c r="E105">
-        <v>-0.180908203125</v>
+        <v>-0.5673828125</v>
       </c>
       <c r="F105">
-        <v>-0.07958984375</v>
+        <v>-0.208984375</v>
       </c>
       <c r="G105">
-        <v>-1</v>
+        <v>-0.99853515625</v>
       </c>
       <c r="H105">
-        <v>0.0182037353515625</v>
+        <v>0.0616455078125</v>
       </c>
       <c r="I105">
-        <v>-0.07958984375</v>
+        <v>-0.208984375</v>
       </c>
       <c r="J105">
-        <v>0.1319580078125</v>
+        <v>-0.48974609375</v>
       </c>
       <c r="K105">
-        <v>-1</v>
+        <v>-0.97705078125</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4531,34 +4531,34 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.042022705078125</v>
+        <v>-0.2144775390625</v>
       </c>
       <c r="C106">
-        <v>0.003705978393554688</v>
+        <v>0.06695556640625</v>
       </c>
       <c r="D106">
-        <v>-0.00970458984375</v>
+        <v>-0.027557373046875</v>
       </c>
       <c r="E106">
-        <v>0.23681640625</v>
+        <v>-0.76904296875</v>
       </c>
       <c r="F106">
-        <v>-0.006237030029296875</v>
+        <v>-0.01280975341796875</v>
       </c>
       <c r="G106">
-        <v>-0.9208984375</v>
+        <v>-0.84375</v>
       </c>
       <c r="H106">
-        <v>0.0176544189453125</v>
+        <v>0.03369140625</v>
       </c>
       <c r="I106">
-        <v>-0.006237030029296875</v>
+        <v>-0.01280975341796875</v>
       </c>
       <c r="J106">
-        <v>0.1163330078125</v>
+        <v>-0.086669921875</v>
       </c>
       <c r="K106">
-        <v>-1</v>
+        <v>-0.8359375</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4566,34 +4566,34 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.059295654296875</v>
+        <v>0.14306640625</v>
       </c>
       <c r="C107">
-        <v>0.02880859375</v>
+        <v>0.25390625</v>
       </c>
       <c r="D107">
-        <v>-0.0251312255859375</v>
+        <v>-0.03741455078125</v>
       </c>
       <c r="E107">
-        <v>-0.2431640625</v>
+        <v>0.47021484375</v>
       </c>
       <c r="F107">
-        <v>-0.044952392578125</v>
+        <v>0.01503753662109375</v>
       </c>
       <c r="G107">
-        <v>-0.8935546875</v>
+        <v>-0.98388671875</v>
       </c>
       <c r="H107">
-        <v>0.00774383544921875</v>
+        <v>0.002283096313476562</v>
       </c>
       <c r="I107">
-        <v>-0.044952392578125</v>
+        <v>0.01503753662109375</v>
       </c>
       <c r="J107">
-        <v>0.01273345947265625</v>
+        <v>-0.2291259765625</v>
       </c>
       <c r="K107">
-        <v>-1</v>
+        <v>-0.91455078125</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4601,34 +4601,34 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.032440185546875</v>
+        <v>-0.0066986083984375</v>
       </c>
       <c r="C108">
-        <v>0.04180908203125</v>
+        <v>0.011810302734375</v>
       </c>
       <c r="D108">
-        <v>-0.00377655029296875</v>
+        <v>-0.005069732666015625</v>
       </c>
       <c r="E108">
-        <v>-0.29541015625</v>
+        <v>-0.296630859375</v>
       </c>
       <c r="F108">
-        <v>-0.006069183349609375</v>
+        <v>-0.08636474609375</v>
       </c>
       <c r="G108">
-        <v>-0.923828125</v>
+        <v>0.19384765625</v>
       </c>
       <c r="H108">
-        <v>-0.00738525390625</v>
+        <v>0.060089111328125</v>
       </c>
       <c r="I108">
-        <v>-0.006069183349609375</v>
+        <v>-0.08636474609375</v>
       </c>
       <c r="J108">
-        <v>-0.08331298828125</v>
+        <v>-0.376708984375</v>
       </c>
       <c r="K108">
-        <v>-0.9921875</v>
+        <v>-0.436279296875</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4636,34 +4636,34 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.005161285400390625</v>
+        <v>0.0804443359375</v>
       </c>
       <c r="C109">
-        <v>0.0458984375</v>
+        <v>0.2015380859375</v>
       </c>
       <c r="D109">
-        <v>-0.004413604736328125</v>
+        <v>-0.017120361328125</v>
       </c>
       <c r="E109">
-        <v>0.0069427490234375</v>
+        <v>0.059783935546875</v>
       </c>
       <c r="F109">
-        <v>-0.0239105224609375</v>
+        <v>-0.1070556640625</v>
       </c>
       <c r="G109">
-        <v>-0.34521484375</v>
+        <v>-0.978515625</v>
       </c>
       <c r="H109">
-        <v>-0.0007200241088867188</v>
+        <v>0.03167724609375</v>
       </c>
       <c r="I109">
-        <v>-0.0239105224609375</v>
+        <v>-0.1070556640625</v>
       </c>
       <c r="J109">
-        <v>0.002492904663085938</v>
+        <v>0.021942138671875</v>
       </c>
       <c r="K109">
-        <v>-0.271484375</v>
+        <v>-0.9853515625</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4671,34 +4671,34 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.0041656494140625</v>
+        <v>0.0718994140625</v>
       </c>
       <c r="C110">
-        <v>-0.08233642578125</v>
+        <v>-0.330810546875</v>
       </c>
       <c r="D110">
-        <v>0.0131072998046875</v>
+        <v>-0.025146484375</v>
       </c>
       <c r="E110">
-        <v>-0.6953125</v>
+        <v>-0.6611328125</v>
       </c>
       <c r="F110">
-        <v>-0.0272216796875</v>
+        <v>-0.1383056640625</v>
       </c>
       <c r="G110">
-        <v>-1</v>
+        <v>-0.99365234375</v>
       </c>
       <c r="H110">
-        <v>-0.01849365234375</v>
+        <v>-0.04296875</v>
       </c>
       <c r="I110">
-        <v>-0.0272216796875</v>
+        <v>-0.1383056640625</v>
       </c>
       <c r="J110">
-        <v>0.033294677734375</v>
+        <v>-0.2021484375</v>
       </c>
       <c r="K110">
-        <v>-1</v>
+        <v>-0.99658203125</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4706,34 +4706,34 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.016937255859375</v>
+        <v>-0.318115234375</v>
       </c>
       <c r="C111">
-        <v>-0.08984375</v>
+        <v>-0.11566162109375</v>
       </c>
       <c r="D111">
-        <v>0.0369873046875</v>
+        <v>0.09735107421875</v>
       </c>
       <c r="E111">
-        <v>-0.390380859375</v>
+        <v>-0.880859375</v>
       </c>
       <c r="F111">
-        <v>0.01207733154296875</v>
+        <v>0.0312347412109375</v>
       </c>
       <c r="G111">
-        <v>-1</v>
+        <v>-0.97021484375</v>
       </c>
       <c r="H111">
-        <v>-0.024688720703125</v>
+        <v>0.02728271484375</v>
       </c>
       <c r="I111">
-        <v>0.01207733154296875</v>
+        <v>0.0312347412109375</v>
       </c>
       <c r="J111">
-        <v>0.03009033203125</v>
+        <v>-0.15283203125</v>
       </c>
       <c r="K111">
-        <v>0.95654296875</v>
+        <v>0.9609375</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4741,34 +4741,34 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0440673828125</v>
+        <v>-0.136474609375</v>
       </c>
       <c r="C112">
-        <v>-0.13720703125</v>
+        <v>-0.2939453125</v>
       </c>
       <c r="D112">
-        <v>0.051910400390625</v>
+        <v>0.05718994140625</v>
       </c>
       <c r="E112">
-        <v>-0.273681640625</v>
+        <v>0.1793212890625</v>
       </c>
       <c r="F112">
-        <v>0.01108551025390625</v>
+        <v>0.08184814453125</v>
       </c>
       <c r="G112">
-        <v>-0.98974609375</v>
+        <v>-0.43994140625</v>
       </c>
       <c r="H112">
-        <v>-0.05731201171875</v>
+        <v>-0.03265380859375</v>
       </c>
       <c r="I112">
-        <v>0.01108551025390625</v>
+        <v>0.08184814453125</v>
       </c>
       <c r="J112">
-        <v>-0.1748046875</v>
+        <v>-0.51708984375</v>
       </c>
       <c r="K112">
-        <v>-0.8974609375</v>
+        <v>-0.63623046875</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4776,34 +4776,34 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.0043792724609375</v>
+        <v>-0.21484375</v>
       </c>
       <c r="C113">
-        <v>0.01038360595703125</v>
+        <v>0.1728515625</v>
       </c>
       <c r="D113">
-        <v>0.003705978393554688</v>
+        <v>0.06488037109375</v>
       </c>
       <c r="E113">
-        <v>-0.2119140625</v>
+        <v>-0.3896484375</v>
       </c>
       <c r="F113">
-        <v>-0.005069732666015625</v>
+        <v>-0.01580810546875</v>
       </c>
       <c r="G113">
-        <v>-0.81591796875</v>
+        <v>-0.98828125</v>
       </c>
       <c r="H113">
-        <v>-0.00890350341796875</v>
+        <v>0.026336669921875</v>
       </c>
       <c r="I113">
-        <v>-0.005069732666015625</v>
+        <v>-0.01580810546875</v>
       </c>
       <c r="J113">
-        <v>-0.057281494140625</v>
+        <v>-0.307861328125</v>
       </c>
       <c r="K113">
-        <v>-0.408935546875</v>
+        <v>-0.68115234375</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4811,34 +4811,34 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.056640625</v>
+        <v>-0.1219482421875</v>
       </c>
       <c r="C114">
-        <v>-0.01186370849609375</v>
+        <v>0.0285491943359375</v>
       </c>
       <c r="D114">
-        <v>0.00989532470703125</v>
+        <v>0.047271728515625</v>
       </c>
       <c r="E114">
-        <v>0.1611328125</v>
+        <v>0.35205078125</v>
       </c>
       <c r="F114">
-        <v>0.00504302978515625</v>
+        <v>0.1075439453125</v>
       </c>
       <c r="G114">
-        <v>-0.58349609375</v>
+        <v>-0.93701171875</v>
       </c>
       <c r="H114">
-        <v>-0.0127410888671875</v>
+        <v>-0.06475830078125</v>
       </c>
       <c r="I114">
-        <v>0.00504302978515625</v>
+        <v>0.1075439453125</v>
       </c>
       <c r="J114">
-        <v>-0.03399658203125</v>
+        <v>-0.2880859375</v>
       </c>
       <c r="K114">
-        <v>-0.99169921875</v>
+        <v>-0.98291015625</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4846,34 +4846,34 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.00441741943359375</v>
+        <v>-0.43212890625</v>
       </c>
       <c r="C115">
-        <v>0.0218505859375</v>
+        <v>0.1815185546875</v>
       </c>
       <c r="D115">
-        <v>-8.577108383178711E-05</v>
+        <v>-0.029205322265625</v>
       </c>
       <c r="E115">
-        <v>-0.285400390625</v>
+        <v>-0.167236328125</v>
       </c>
       <c r="F115">
-        <v>0.00154876708984375</v>
+        <v>-0.001835823059082031</v>
       </c>
       <c r="G115">
-        <v>-0.61962890625</v>
+        <v>-0.9482421875</v>
       </c>
       <c r="H115">
-        <v>-0.0060882568359375</v>
+        <v>-0.03314208984375</v>
       </c>
       <c r="I115">
-        <v>0.00154876708984375</v>
+        <v>-0.001835823059082031</v>
       </c>
       <c r="J115">
-        <v>-0.08489990234375</v>
+        <v>-0.14501953125</v>
       </c>
       <c r="K115">
-        <v>-0.9228515625</v>
+        <v>-0.66943359375</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4881,34 +4881,34 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.003198623657226562</v>
+        <v>0.1329345703125</v>
       </c>
       <c r="C116">
-        <v>-0.093017578125</v>
+        <v>0.0679931640625</v>
       </c>
       <c r="D116">
-        <v>0.027679443359375</v>
+        <v>0.0889892578125</v>
       </c>
       <c r="E116">
-        <v>-0.5712890625</v>
+        <v>-0.50244140625</v>
       </c>
       <c r="F116">
-        <v>0.03192138671875</v>
+        <v>0.144287109375</v>
       </c>
       <c r="G116">
-        <v>-1</v>
+        <v>-0.998046875</v>
       </c>
       <c r="H116">
-        <v>-0.01326751708984375</v>
+        <v>0.001888275146484375</v>
       </c>
       <c r="I116">
-        <v>0.03192138671875</v>
+        <v>0.144287109375</v>
       </c>
       <c r="J116">
-        <v>-0.00356292724609375</v>
+        <v>-0.277587890625</v>
       </c>
       <c r="K116">
-        <v>-0.90771484375</v>
+        <v>-0.97216796875</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4916,34 +4916,34 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0177459716796875</v>
+        <v>0.059112548828125</v>
       </c>
       <c r="C117">
-        <v>0.001381874084472656</v>
+        <v>-0.05078125</v>
       </c>
       <c r="D117">
-        <v>-0.00200653076171875</v>
+        <v>0.0081024169921875</v>
       </c>
       <c r="E117">
-        <v>-0.46240234375</v>
+        <v>-0.8603515625</v>
       </c>
       <c r="F117">
-        <v>0.003187179565429688</v>
+        <v>-0.0360107421875</v>
       </c>
       <c r="G117">
-        <v>-1</v>
+        <v>-0.5908203125</v>
       </c>
       <c r="H117">
-        <v>0.0022430419921875</v>
+        <v>-0.00502777099609375</v>
       </c>
       <c r="I117">
-        <v>0.003187179565429688</v>
+        <v>-0.0360107421875</v>
       </c>
       <c r="J117">
-        <v>0.027618408203125</v>
+        <v>-0.2103271484375</v>
       </c>
       <c r="K117">
-        <v>-0.9990234375</v>
+        <v>-0.94775390625</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4951,34 +4951,34 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1103515625</v>
+        <v>0.263916015625</v>
       </c>
       <c r="C118">
-        <v>0.0897216796875</v>
+        <v>0.07269287109375</v>
       </c>
       <c r="D118">
-        <v>-0.05804443359375</v>
+        <v>-0.07720947265625</v>
       </c>
       <c r="E118">
-        <v>-0.97900390625</v>
+        <v>-0.623046875</v>
       </c>
       <c r="F118">
-        <v>-0.134033203125</v>
+        <v>-0.139404296875</v>
       </c>
       <c r="G118">
-        <v>-1</v>
+        <v>-0.95849609375</v>
       </c>
       <c r="H118">
-        <v>0.000446319580078125</v>
+        <v>-0.0209197998046875</v>
       </c>
       <c r="I118">
-        <v>-0.134033203125</v>
+        <v>-0.139404296875</v>
       </c>
       <c r="J118">
-        <v>-0.03192138671875</v>
+        <v>0.30078125</v>
       </c>
       <c r="K118">
-        <v>-1</v>
+        <v>-0.81591796875</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4986,34 +4986,34 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.003637313842773438</v>
+        <v>-0.105712890625</v>
       </c>
       <c r="C119">
-        <v>-0.0548095703125</v>
+        <v>-0.229248046875</v>
       </c>
       <c r="D119">
-        <v>0.0168304443359375</v>
+        <v>0.0767822265625</v>
       </c>
       <c r="E119">
-        <v>-0.281982421875</v>
+        <v>-0.003753662109375</v>
       </c>
       <c r="F119">
-        <v>0.0148162841796875</v>
+        <v>0.0186309814453125</v>
       </c>
       <c r="G119">
-        <v>-0.98193359375</v>
+        <v>-0.978515625</v>
       </c>
       <c r="H119">
-        <v>-0.00933837890625</v>
+        <v>0.006114959716796875</v>
       </c>
       <c r="I119">
-        <v>0.0148162841796875</v>
+        <v>0.0186309814453125</v>
       </c>
       <c r="J119">
-        <v>-0.00669097900390625</v>
+        <v>-0.2349853515625</v>
       </c>
       <c r="K119">
-        <v>-0.6787109375</v>
+        <v>0.210205078125</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5021,34 +5021,34 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.07745361328125</v>
+        <v>-0.024322509765625</v>
       </c>
       <c r="C120">
-        <v>-0.172607421875</v>
+        <v>-0.302490234375</v>
       </c>
       <c r="D120">
-        <v>-0.004230499267578125</v>
+        <v>-0.0211029052734375</v>
       </c>
       <c r="E120">
-        <v>-0.90673828125</v>
+        <v>-0.265625</v>
       </c>
       <c r="F120">
-        <v>-0.04296875</v>
+        <v>-0.07135009765625</v>
       </c>
       <c r="G120">
-        <v>-1</v>
+        <v>-0.953125</v>
       </c>
       <c r="H120">
-        <v>0.00356292724609375</v>
+        <v>-0.076904296875</v>
       </c>
       <c r="I120">
-        <v>-0.04296875</v>
+        <v>-0.07135009765625</v>
       </c>
       <c r="J120">
-        <v>0.2177734375</v>
+        <v>-0.1397705078125</v>
       </c>
       <c r="K120">
-        <v>-1</v>
+        <v>-0.822265625</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5056,34 +5056,34 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.0024566650390625</v>
+        <v>-0.394775390625</v>
       </c>
       <c r="C121">
-        <v>0.048126220703125</v>
+        <v>0.060516357421875</v>
       </c>
       <c r="D121">
-        <v>-0.005947113037109375</v>
+        <v>-0.06951904296875</v>
       </c>
       <c r="E121">
-        <v>-0.09124755859375</v>
+        <v>-0.488525390625</v>
       </c>
       <c r="F121">
-        <v>-0.036163330078125</v>
+        <v>-0.10614013671875</v>
       </c>
       <c r="G121">
-        <v>-0.81591796875</v>
+        <v>-0.9609375</v>
       </c>
       <c r="H121">
-        <v>0.001566886901855469</v>
+        <v>0.03778076171875</v>
       </c>
       <c r="I121">
-        <v>-0.036163330078125</v>
+        <v>-0.10614013671875</v>
       </c>
       <c r="J121">
-        <v>0.0361328125</v>
+        <v>-0.60205078125</v>
       </c>
       <c r="K121">
-        <v>-0.1553955078125</v>
+        <v>-0.4794921875</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5091,34 +5091,34 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.01515960693359375</v>
+        <v>0.263916015625</v>
       </c>
       <c r="C122">
-        <v>0.10028076171875</v>
+        <v>-0.077392578125</v>
       </c>
       <c r="D122">
-        <v>-0.01401519775390625</v>
+        <v>-0.06341552734375</v>
       </c>
       <c r="E122">
-        <v>-0.244140625</v>
+        <v>-0.60888671875</v>
       </c>
       <c r="F122">
-        <v>-0.053070068359375</v>
+        <v>-0.15478515625</v>
       </c>
       <c r="G122">
-        <v>-0.99560546875</v>
+        <v>-0.287109375</v>
       </c>
       <c r="H122">
-        <v>0.007480621337890625</v>
+        <v>-0.01259613037109375</v>
       </c>
       <c r="I122">
-        <v>-0.053070068359375</v>
+        <v>-0.15478515625</v>
       </c>
       <c r="J122">
-        <v>0.06878662109375</v>
+        <v>-0.302978515625</v>
       </c>
       <c r="K122">
-        <v>-0.91650390625</v>
+        <v>-0.89404296875</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5126,34 +5126,34 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.08380126953125</v>
+        <v>-0.306640625</v>
       </c>
       <c r="C123">
-        <v>-0.1778564453125</v>
+        <v>-0.1693115234375</v>
       </c>
       <c r="D123">
-        <v>0.01192474365234375</v>
+        <v>0.01313018798828125</v>
       </c>
       <c r="E123">
-        <v>-0.6220703125</v>
+        <v>-0.1302490234375</v>
       </c>
       <c r="F123">
-        <v>-0.05145263671875</v>
+        <v>-0.14404296875</v>
       </c>
       <c r="G123">
-        <v>-1</v>
+        <v>-0.927734375</v>
       </c>
       <c r="H123">
-        <v>-0.0194854736328125</v>
+        <v>-0.020050048828125</v>
       </c>
       <c r="I123">
-        <v>-0.05145263671875</v>
+        <v>-0.14404296875</v>
       </c>
       <c r="J123">
-        <v>0.1513671875</v>
+        <v>-0.61572265625</v>
       </c>
       <c r="K123">
-        <v>-1</v>
+        <v>-0.193603515625</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5161,34 +5161,34 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.07342529296875</v>
+        <v>0.2027587890625</v>
       </c>
       <c r="C124">
-        <v>-0.08746337890625</v>
+        <v>-0.049560546875</v>
       </c>
       <c r="D124">
-        <v>0.01177978515625</v>
+        <v>0.016357421875</v>
       </c>
       <c r="E124">
-        <v>-0.01332855224609375</v>
+        <v>0.30078125</v>
       </c>
       <c r="F124">
-        <v>-0.004608154296875</v>
+        <v>0.03466796875</v>
       </c>
       <c r="G124">
-        <v>-1</v>
+        <v>-0.96337890625</v>
       </c>
       <c r="H124">
-        <v>-0.00447845458984375</v>
+        <v>0.016754150390625</v>
       </c>
       <c r="I124">
-        <v>-0.004608154296875</v>
+        <v>0.03466796875</v>
       </c>
       <c r="J124">
-        <v>0.151123046875</v>
+        <v>-0.323974609375</v>
       </c>
       <c r="K124">
-        <v>-1</v>
+        <v>-0.96240234375</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5196,34 +5196,34 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0099945068359375</v>
+        <v>0.0277557373046875</v>
       </c>
       <c r="C125">
-        <v>0.07159423828125</v>
+        <v>0.195556640625</v>
       </c>
       <c r="D125">
-        <v>-0.000621795654296875</v>
+        <v>0.045196533203125</v>
       </c>
       <c r="E125">
-        <v>-0.259765625</v>
+        <v>-0.6689453125</v>
       </c>
       <c r="F125">
-        <v>-0.04547119140625</v>
+        <v>0.002531051635742188</v>
       </c>
       <c r="G125">
-        <v>-0.98095703125</v>
+        <v>-0.87744140625</v>
       </c>
       <c r="H125">
-        <v>-0.00832366943359375</v>
+        <v>-0.0303192138671875</v>
       </c>
       <c r="I125">
-        <v>-0.04547119140625</v>
+        <v>0.002531051635742188</v>
       </c>
       <c r="J125">
-        <v>0.0100250244140625</v>
+        <v>0.0460205078125</v>
       </c>
       <c r="K125">
-        <v>0.97509765625</v>
+        <v>0.448974609375</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5231,34 +5231,34 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.033905029296875</v>
+        <v>0.10333251953125</v>
       </c>
       <c r="C126">
-        <v>-0.11334228515625</v>
+        <v>-0.0909423828125</v>
       </c>
       <c r="D126">
-        <v>0.021575927734375</v>
+        <v>0.0296630859375</v>
       </c>
       <c r="E126">
-        <v>-0.25244140625</v>
+        <v>-0.5771484375</v>
       </c>
       <c r="F126">
-        <v>0.0241546630859375</v>
+        <v>0.0240936279296875</v>
       </c>
       <c r="G126">
-        <v>-0.99853515625</v>
+        <v>-0.9931640625</v>
       </c>
       <c r="H126">
-        <v>-0.011749267578125</v>
+        <v>0.0225372314453125</v>
       </c>
       <c r="I126">
-        <v>0.0241546630859375</v>
+        <v>0.0240936279296875</v>
       </c>
       <c r="J126">
-        <v>0.021484375</v>
+        <v>-0.405517578125</v>
       </c>
       <c r="K126">
-        <v>-0.99951171875</v>
+        <v>-0.409423828125</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5266,31 +5266,31 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0205535888671875</v>
+        <v>-0.3935546875</v>
       </c>
       <c r="C127">
-        <v>0.0252838134765625</v>
+        <v>-0.30322265625</v>
       </c>
       <c r="D127">
-        <v>-0.003925323486328125</v>
+        <v>0.05047607421875</v>
       </c>
       <c r="E127">
-        <v>-0.353515625</v>
+        <v>-0.11749267578125</v>
       </c>
       <c r="F127">
-        <v>0.007503509521484375</v>
+        <v>0.05096435546875</v>
       </c>
       <c r="G127">
-        <v>-0.953125</v>
+        <v>-0.97021484375</v>
       </c>
       <c r="H127">
-        <v>0.0008873939514160156</v>
+        <v>0.00893402099609375</v>
       </c>
       <c r="I127">
-        <v>0.007503509521484375</v>
+        <v>0.05096435546875</v>
       </c>
       <c r="J127">
-        <v>-0.048370361328125</v>
+        <v>-0.323486328125</v>
       </c>
       <c r="K127">
         <v>-0.9951171875</v>
@@ -5301,34 +5301,34 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.06817626953125</v>
+        <v>-0.0193939208984375</v>
       </c>
       <c r="C128">
-        <v>-0.2169189453125</v>
+        <v>0.029815673828125</v>
       </c>
       <c r="D128">
-        <v>0.01381683349609375</v>
+        <v>0.01233673095703125</v>
       </c>
       <c r="E128">
-        <v>-0.57080078125</v>
+        <v>-0.73291015625</v>
       </c>
       <c r="F128">
-        <v>-0.00928497314453125</v>
+        <v>0.04388427734375</v>
       </c>
       <c r="G128">
-        <v>-1</v>
+        <v>-0.9853515625</v>
       </c>
       <c r="H128">
-        <v>0.00762939453125</v>
+        <v>0.027557373046875</v>
       </c>
       <c r="I128">
-        <v>-0.00928497314453125</v>
+        <v>0.04388427734375</v>
       </c>
       <c r="J128">
-        <v>0.28955078125</v>
+        <v>0.096435546875</v>
       </c>
       <c r="K128">
-        <v>-1</v>
+        <v>-0.037017822265625</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5336,34 +5336,34 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0826416015625</v>
+        <v>0.313720703125</v>
       </c>
       <c r="C129">
-        <v>0.047607421875</v>
+        <v>0.333740234375</v>
       </c>
       <c r="D129">
-        <v>-0.037628173828125</v>
+        <v>-0.11541748046875</v>
       </c>
       <c r="E129">
-        <v>0.2001953125</v>
+        <v>0.034637451171875</v>
       </c>
       <c r="F129">
-        <v>-0.09906005859375</v>
+        <v>-0.0916748046875</v>
       </c>
       <c r="G129">
-        <v>-0.1529541015625</v>
+        <v>-0.546875</v>
       </c>
       <c r="H129">
-        <v>0.00926971435546875</v>
+        <v>0.0308685302734375</v>
       </c>
       <c r="I129">
-        <v>-0.09906005859375</v>
+        <v>-0.0916748046875</v>
       </c>
       <c r="J129">
-        <v>0.052703857421875</v>
+        <v>-0.119384765625</v>
       </c>
       <c r="K129">
-        <v>-1</v>
+        <v>-0.99658203125</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5371,34 +5371,34 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.052459716796875</v>
+        <v>0.041015625</v>
       </c>
       <c r="C130">
-        <v>-0.15283203125</v>
+        <v>-0.0212860107421875</v>
       </c>
       <c r="D130">
-        <v>0.027435302734375</v>
+        <v>-0.0885009765625</v>
       </c>
       <c r="E130">
-        <v>-0.220947265625</v>
+        <v>0.73193359375</v>
       </c>
       <c r="F130">
-        <v>-0.0235137939453125</v>
+        <v>0.0677490234375</v>
       </c>
       <c r="G130">
-        <v>-1</v>
+        <v>-0.958984375</v>
       </c>
       <c r="H130">
-        <v>-0.034759521484375</v>
+        <v>-0.023681640625</v>
       </c>
       <c r="I130">
-        <v>-0.0235137939453125</v>
+        <v>0.0677490234375</v>
       </c>
       <c r="J130">
-        <v>0.003316879272460938</v>
+        <v>-0.11871337890625</v>
       </c>
       <c r="K130">
-        <v>-1</v>
+        <v>-0.7109375</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5406,34 +5406,34 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0977783203125</v>
+        <v>0.51123046875</v>
       </c>
       <c r="C131">
-        <v>-0.0860595703125</v>
+        <v>-0.019195556640625</v>
       </c>
       <c r="D131">
-        <v>0.04583740234375</v>
+        <v>0.01003265380859375</v>
       </c>
       <c r="E131">
-        <v>-0.958984375</v>
+        <v>-0.64453125</v>
       </c>
       <c r="F131">
-        <v>0.01971435546875</v>
+        <v>0.0941162109375</v>
       </c>
       <c r="G131">
-        <v>-1</v>
+        <v>-0.94482421875</v>
       </c>
       <c r="H131">
-        <v>0.004787445068359375</v>
+        <v>-0.017578125</v>
       </c>
       <c r="I131">
-        <v>0.01971435546875</v>
+        <v>0.0941162109375</v>
       </c>
       <c r="J131">
-        <v>0.381591796875</v>
+        <v>-0.452392578125</v>
       </c>
       <c r="K131">
-        <v>-1</v>
+        <v>-0.986328125</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5441,34 +5441,34 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.031951904296875</v>
+        <v>0.2313232421875</v>
       </c>
       <c r="C132">
-        <v>0.0826416015625</v>
+        <v>0.0308990478515625</v>
       </c>
       <c r="D132">
-        <v>-0.0259552001953125</v>
+        <v>-0.123291015625</v>
       </c>
       <c r="E132">
-        <v>-0.2254638671875</v>
+        <v>-0.63623046875</v>
       </c>
       <c r="F132">
-        <v>-0.065673828125</v>
+        <v>-0.1839599609375</v>
       </c>
       <c r="G132">
-        <v>-0.63037109375</v>
+        <v>-0.9736328125</v>
       </c>
       <c r="H132">
-        <v>0.0048980712890625</v>
+        <v>0.0215606689453125</v>
       </c>
       <c r="I132">
-        <v>-0.065673828125</v>
+        <v>-0.1839599609375</v>
       </c>
       <c r="J132">
-        <v>-0.01508331298828125</v>
+        <v>-0.11700439453125</v>
       </c>
       <c r="K132">
-        <v>-1</v>
+        <v>-0.96435546875</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5476,34 +5476,34 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.0031585693359375</v>
+        <v>0.12408447265625</v>
       </c>
       <c r="C133">
-        <v>-0.033935546875</v>
+        <v>-0.09503173828125</v>
       </c>
       <c r="D133">
-        <v>0.01314544677734375</v>
+        <v>-0.016021728515625</v>
       </c>
       <c r="E133">
-        <v>-0.71337890625</v>
+        <v>-0.8037109375</v>
       </c>
       <c r="F133">
-        <v>-0.00795745849609375</v>
+        <v>-0.0186920166015625</v>
       </c>
       <c r="G133">
-        <v>-1</v>
+        <v>-0.99658203125</v>
       </c>
       <c r="H133">
-        <v>-0.00681304931640625</v>
+        <v>-0.03363037109375</v>
       </c>
       <c r="I133">
-        <v>-0.00795745849609375</v>
+        <v>-0.0186920166015625</v>
       </c>
       <c r="J133">
-        <v>0.077880859375</v>
+        <v>-0.0972900390625</v>
       </c>
       <c r="K133">
-        <v>-0.998046875</v>
+        <v>-0.9912109375</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5511,34 +5511,34 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.033447265625</v>
+        <v>0.307861328125</v>
       </c>
       <c r="C134">
-        <v>-0.103759765625</v>
+        <v>-0.041046142578125</v>
       </c>
       <c r="D134">
-        <v>0.034088134765625</v>
+        <v>0.07666015625</v>
       </c>
       <c r="E134">
-        <v>-0.31494140625</v>
+        <v>-0.4521484375</v>
       </c>
       <c r="F134">
-        <v>0.02752685546875</v>
+        <v>-0.01165008544921875</v>
       </c>
       <c r="G134">
-        <v>-0.9990234375</v>
+        <v>-0.90234375</v>
       </c>
       <c r="H134">
-        <v>-0.0193634033203125</v>
+        <v>0.049346923828125</v>
       </c>
       <c r="I134">
-        <v>0.02752685546875</v>
+        <v>-0.01165008544921875</v>
       </c>
       <c r="J134">
-        <v>0.0250244140625</v>
+        <v>0.24072265625</v>
       </c>
       <c r="K134">
-        <v>0.73193359375</v>
+        <v>0.8662109375</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5546,34 +5546,34 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.041717529296875</v>
+        <v>-0.1893310546875</v>
       </c>
       <c r="C135">
-        <v>-0.357177734375</v>
+        <v>-0.2052001953125</v>
       </c>
       <c r="D135">
-        <v>0.0521240234375</v>
+        <v>0.01580810546875</v>
       </c>
       <c r="E135">
-        <v>-0.7119140625</v>
+        <v>-0.9423828125</v>
       </c>
       <c r="F135">
-        <v>-0.01105499267578125</v>
+        <v>0.018890380859375</v>
       </c>
       <c r="G135">
-        <v>-1</v>
+        <v>-0.8310546875</v>
       </c>
       <c r="H135">
-        <v>-0.00930023193359375</v>
+        <v>0.138916015625</v>
       </c>
       <c r="I135">
-        <v>-0.01105499267578125</v>
+        <v>0.018890380859375</v>
       </c>
       <c r="J135">
-        <v>0.375732421875</v>
+        <v>-0.375732421875</v>
       </c>
       <c r="K135">
-        <v>-1</v>
+        <v>-0.80908203125</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5581,34 +5581,34 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01255035400390625</v>
+        <v>0.10223388671875</v>
       </c>
       <c r="C136">
-        <v>-0.00807952880859375</v>
+        <v>-0.0252838134765625</v>
       </c>
       <c r="D136">
-        <v>0.005535125732421875</v>
+        <v>0.033843994140625</v>
       </c>
       <c r="E136">
-        <v>0.193359375</v>
+        <v>0.56787109375</v>
       </c>
       <c r="F136">
-        <v>-0.0115203857421875</v>
+        <v>0.040496826171875</v>
       </c>
       <c r="G136">
-        <v>0.324951171875</v>
+        <v>-0.9326171875</v>
       </c>
       <c r="H136">
-        <v>-0.00563812255859375</v>
+        <v>-0.038818359375</v>
       </c>
       <c r="I136">
-        <v>-0.0115203857421875</v>
+        <v>0.040496826171875</v>
       </c>
       <c r="J136">
-        <v>0.01959228515625</v>
+        <v>0.090087890625</v>
       </c>
       <c r="K136">
-        <v>0.296875</v>
+        <v>-0.95556640625</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5616,34 +5616,34 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0120391845703125</v>
+        <v>-0.02520751953125</v>
       </c>
       <c r="C137">
-        <v>-0.02337646484375</v>
+        <v>-0.0672607421875</v>
       </c>
       <c r="D137">
-        <v>-0.002765655517578125</v>
+        <v>-0.009796142578125</v>
       </c>
       <c r="E137">
-        <v>-0.2120361328125</v>
+        <v>-0.5009765625</v>
       </c>
       <c r="F137">
-        <v>-0.003328323364257812</v>
+        <v>0.0186004638671875</v>
       </c>
       <c r="G137">
-        <v>-0.9375</v>
+        <v>-0.78759765625</v>
       </c>
       <c r="H137">
-        <v>-0.001094818115234375</v>
+        <v>-0.0186309814453125</v>
       </c>
       <c r="I137">
-        <v>-0.003328323364257812</v>
+        <v>0.0186004638671875</v>
       </c>
       <c r="J137">
-        <v>-0.0254974365234375</v>
+        <v>-0.039825439453125</v>
       </c>
       <c r="K137">
-        <v>-1</v>
+        <v>-0.4736328125</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5651,34 +5651,34 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.019561767578125</v>
+        <v>0.081787109375</v>
       </c>
       <c r="C138">
-        <v>-0.0195465087890625</v>
+        <v>-0.07476806640625</v>
       </c>
       <c r="D138">
-        <v>0.00823974609375</v>
+        <v>-0.0221099853515625</v>
       </c>
       <c r="E138">
-        <v>-0.39794921875</v>
+        <v>-0.81494140625</v>
       </c>
       <c r="F138">
-        <v>-0.0050811767578125</v>
+        <v>-0.12255859375</v>
       </c>
       <c r="G138">
-        <v>-1</v>
+        <v>-0.99072265625</v>
       </c>
       <c r="H138">
-        <v>-0.002431869506835938</v>
+        <v>-0.1217041015625</v>
       </c>
       <c r="I138">
-        <v>-0.0050811767578125</v>
+        <v>-0.12255859375</v>
       </c>
       <c r="J138">
-        <v>0.0904541015625</v>
+        <v>-0.5634765625</v>
       </c>
       <c r="K138">
-        <v>-0.69189453125</v>
+        <v>-0.428955078125</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5686,34 +5686,34 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.034759521484375</v>
+        <v>0.09124755859375</v>
       </c>
       <c r="C139">
-        <v>-0.02362060546875</v>
+        <v>0.044464111328125</v>
       </c>
       <c r="D139">
-        <v>0.0111846923828125</v>
+        <v>0.08416748046875</v>
       </c>
       <c r="E139">
-        <v>0.057281494140625</v>
+        <v>0.75830078125</v>
       </c>
       <c r="F139">
-        <v>0.006938934326171875</v>
+        <v>0.019287109375</v>
       </c>
       <c r="G139">
-        <v>-0.50390625</v>
+        <v>-0.91943359375</v>
       </c>
       <c r="H139">
-        <v>-0.011810302734375</v>
+        <v>-0.01093292236328125</v>
       </c>
       <c r="I139">
-        <v>0.006938934326171875</v>
+        <v>0.019287109375</v>
       </c>
       <c r="J139">
-        <v>-0.0283203125</v>
+        <v>0.37744140625</v>
       </c>
       <c r="K139">
-        <v>-0.7548828125</v>
+        <v>-0.86474609375</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5721,34 +5721,34 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.00870513916015625</v>
+        <v>-0.09808349609375</v>
       </c>
       <c r="C140">
-        <v>0.023651123046875</v>
+        <v>0.161865234375</v>
       </c>
       <c r="D140">
-        <v>-0.001317024230957031</v>
+        <v>0.041259765625</v>
       </c>
       <c r="E140">
-        <v>-0.398193359375</v>
+        <v>-0.82568359375</v>
       </c>
       <c r="F140">
-        <v>-0.00366973876953125</v>
+        <v>-0.0927734375</v>
       </c>
       <c r="G140">
-        <v>-0.9326171875</v>
+        <v>-0.970703125</v>
       </c>
       <c r="H140">
-        <v>-0.007965087890625</v>
+        <v>-0.009735107421875</v>
       </c>
       <c r="I140">
-        <v>-0.00366973876953125</v>
+        <v>-0.0927734375</v>
       </c>
       <c r="J140">
-        <v>-0.09771728515625</v>
+        <v>-0.369140625</v>
       </c>
       <c r="K140">
-        <v>-0.99560546875</v>
+        <v>-0.95458984375</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5756,34 +5756,34 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.203857421875</v>
+        <v>0.384765625</v>
       </c>
       <c r="C141">
-        <v>-0.50341796875</v>
+        <v>-0.28076171875</v>
       </c>
       <c r="D141">
-        <v>0.134765625</v>
+        <v>0.08154296875</v>
       </c>
       <c r="E141">
-        <v>-0.481201171875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="F141">
-        <v>0.022125244140625</v>
+        <v>-0.0419921875</v>
       </c>
       <c r="G141">
-        <v>-1</v>
+        <v>-0.7216796875</v>
       </c>
       <c r="H141">
-        <v>-0.060791015625</v>
+        <v>-0.0168304443359375</v>
       </c>
       <c r="I141">
-        <v>0.022125244140625</v>
+        <v>-0.0419921875</v>
       </c>
       <c r="J141">
-        <v>0.52294921875</v>
+        <v>-0.447998046875</v>
       </c>
       <c r="K141">
-        <v>-1</v>
+        <v>-0.7978515625</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5791,34 +5791,34 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0419921875</v>
+        <v>-0.1435546875</v>
       </c>
       <c r="C142">
-        <v>-0.1796875</v>
+        <v>0.004535675048828125</v>
       </c>
       <c r="D142">
-        <v>0.001415252685546875</v>
+        <v>-0.012176513671875</v>
       </c>
       <c r="E142">
-        <v>-0.6064453125</v>
+        <v>0.379150390625</v>
       </c>
       <c r="F142">
-        <v>-0.06134033203125</v>
+        <v>-0.10137939453125</v>
       </c>
       <c r="G142">
-        <v>-1</v>
+        <v>-0.98388671875</v>
       </c>
       <c r="H142">
-        <v>-0.005542755126953125</v>
+        <v>0.032958984375</v>
       </c>
       <c r="I142">
-        <v>-0.06134033203125</v>
+        <v>-0.10137939453125</v>
       </c>
       <c r="J142">
-        <v>0.1925048828125</v>
+        <v>0.033538818359375</v>
       </c>
       <c r="K142">
-        <v>-1</v>
+        <v>-0.6171875</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5826,34 +5826,34 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0296173095703125</v>
+        <v>0.108642578125</v>
       </c>
       <c r="C143">
-        <v>-0.04766845703125</v>
+        <v>0.0318603515625</v>
       </c>
       <c r="D143">
-        <v>0.0107269287109375</v>
+        <v>-0.0214691162109375</v>
       </c>
       <c r="E143">
-        <v>-0.08502197265625</v>
+        <v>0.29248046875</v>
       </c>
       <c r="F143">
-        <v>-0.007049560546875</v>
+        <v>-0.0248260498046875</v>
       </c>
       <c r="G143">
-        <v>-0.9853515625</v>
+        <v>-0.9033203125</v>
       </c>
       <c r="H143">
-        <v>-0.0115966796875</v>
+        <v>0.00408172607421875</v>
       </c>
       <c r="I143">
-        <v>-0.007049560546875</v>
+        <v>-0.0248260498046875</v>
       </c>
       <c r="J143">
-        <v>0.03717041015625</v>
+        <v>-0.1978759765625</v>
       </c>
       <c r="K143">
-        <v>-0.12445068359375</v>
+        <v>-0.55224609375</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5861,34 +5861,34 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0265655517578125</v>
+        <v>-0.1951904296875</v>
       </c>
       <c r="C144">
-        <v>-0.1064453125</v>
+        <v>0.033935546875</v>
       </c>
       <c r="D144">
-        <v>-0.0106048583984375</v>
+        <v>-0.051483154296875</v>
       </c>
       <c r="E144">
-        <v>-0.77587890625</v>
+        <v>-0.71533203125</v>
       </c>
       <c r="F144">
-        <v>-0.08746337890625</v>
+        <v>-0.03826904296875</v>
       </c>
       <c r="G144">
-        <v>-1</v>
+        <v>-0.99951171875</v>
       </c>
       <c r="H144">
-        <v>-8.821487426757812E-05</v>
+        <v>0.04913330078125</v>
       </c>
       <c r="I144">
-        <v>-0.08746337890625</v>
+        <v>-0.03826904296875</v>
       </c>
       <c r="J144">
-        <v>0.23291015625</v>
+        <v>-0.2032470703125</v>
       </c>
       <c r="K144">
-        <v>-1</v>
+        <v>-0.97216796875</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5896,34 +5896,34 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.01727294921875</v>
+        <v>-0.0230255126953125</v>
       </c>
       <c r="C145">
-        <v>-0.0379638671875</v>
+        <v>-0.11114501953125</v>
       </c>
       <c r="D145">
-        <v>0.001642227172851562</v>
+        <v>0.034942626953125</v>
       </c>
       <c r="E145">
-        <v>-0.35693359375</v>
+        <v>-0.9150390625</v>
       </c>
       <c r="F145">
-        <v>-0.036224365234375</v>
+        <v>-0.0870361328125</v>
       </c>
       <c r="G145">
-        <v>-0.9912109375</v>
+        <v>-0.974609375</v>
       </c>
       <c r="H145">
-        <v>-0.01454925537109375</v>
+        <v>-0.109130859375</v>
       </c>
       <c r="I145">
-        <v>-0.036224365234375</v>
+        <v>-0.0870361328125</v>
       </c>
       <c r="J145">
-        <v>-0.024993896484375</v>
+        <v>-0.30517578125</v>
       </c>
       <c r="K145">
-        <v>-1</v>
+        <v>-0.9921875</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5931,34 +5931,34 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.002153396606445312</v>
+        <v>0.0002305507659912109</v>
       </c>
       <c r="C146">
-        <v>-0.04736328125</v>
+        <v>-0.08331298828125</v>
       </c>
       <c r="D146">
-        <v>0.00902557373046875</v>
+        <v>0.1085205078125</v>
       </c>
       <c r="E146">
-        <v>-0.1793212890625</v>
+        <v>-0.7958984375</v>
       </c>
       <c r="F146">
-        <v>0.0142059326171875</v>
+        <v>0.07879638671875</v>
       </c>
       <c r="G146">
-        <v>-0.966796875</v>
+        <v>-0.96875</v>
       </c>
       <c r="H146">
-        <v>-0.002954483032226562</v>
+        <v>0.039642333984375</v>
       </c>
       <c r="I146">
-        <v>0.0142059326171875</v>
+        <v>0.07879638671875</v>
       </c>
       <c r="J146">
-        <v>-0.001927375793457031</v>
+        <v>-0.1722412109375</v>
       </c>
       <c r="K146">
-        <v>-0.998046875</v>
+        <v>-0.66455078125</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5966,34 +5966,34 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.01337432861328125</v>
+        <v>0.0447998046875</v>
       </c>
       <c r="C147">
-        <v>-0.189208984375</v>
+        <v>-0.00902557373046875</v>
       </c>
       <c r="D147">
-        <v>0.034027099609375</v>
+        <v>0.048858642578125</v>
       </c>
       <c r="E147">
-        <v>-0.52392578125</v>
+        <v>0.5302734375</v>
       </c>
       <c r="F147">
-        <v>0.0244598388671875</v>
+        <v>0.08367919921875</v>
       </c>
       <c r="G147">
-        <v>-1</v>
+        <v>-0.994140625</v>
       </c>
       <c r="H147">
-        <v>-0.020751953125</v>
+        <v>-0.042205810546875</v>
       </c>
       <c r="I147">
-        <v>0.0244598388671875</v>
+        <v>0.08367919921875</v>
       </c>
       <c r="J147">
-        <v>0.00742340087890625</v>
+        <v>-0.301025390625</v>
       </c>
       <c r="K147">
-        <v>-1</v>
+        <v>-0.96337890625</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -6001,34 +6001,34 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.04571533203125</v>
+        <v>0.10791015625</v>
       </c>
       <c r="C148">
-        <v>-0.11688232421875</v>
+        <v>-0.024017333984375</v>
       </c>
       <c r="D148">
-        <v>0.01476287841796875</v>
+        <v>-0.080810546875</v>
       </c>
       <c r="E148">
-        <v>-0.047119140625</v>
+        <v>0.299560546875</v>
       </c>
       <c r="F148">
-        <v>-0.0209197998046875</v>
+        <v>0.0911865234375</v>
       </c>
       <c r="G148">
-        <v>-0.939453125</v>
+        <v>-0.7646484375</v>
       </c>
       <c r="H148">
-        <v>-0.0227508544921875</v>
+        <v>-0.0282135009765625</v>
       </c>
       <c r="I148">
-        <v>-0.0209197998046875</v>
+        <v>0.0911865234375</v>
       </c>
       <c r="J148">
-        <v>-0.03436279296875</v>
+        <v>-0.410400390625</v>
       </c>
       <c r="K148">
-        <v>-1</v>
+        <v>-0.5966796875</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -6036,34 +6036,34 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.00788116455078125</v>
+        <v>-0.27392578125</v>
       </c>
       <c r="C149">
-        <v>-0.07098388671875</v>
+        <v>-0.0286712646484375</v>
       </c>
       <c r="D149">
-        <v>0.0146026611328125</v>
+        <v>-0.038970947265625</v>
       </c>
       <c r="E149">
-        <v>-0.357177734375</v>
+        <v>-0.6552734375</v>
       </c>
       <c r="F149">
-        <v>0.0201873779296875</v>
+        <v>-0.0013427734375</v>
       </c>
       <c r="G149">
-        <v>-0.99462890625</v>
+        <v>-0.994140625</v>
       </c>
       <c r="H149">
-        <v>-0.009307861328125</v>
+        <v>0.04156494140625</v>
       </c>
       <c r="I149">
-        <v>0.0201873779296875</v>
+        <v>-0.0013427734375</v>
       </c>
       <c r="J149">
-        <v>-0.02471923828125</v>
+        <v>-0.525390625</v>
       </c>
       <c r="K149">
-        <v>-0.9970703125</v>
+        <v>-0.94873046875</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -6071,34 +6071,34 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.01995849609375</v>
+        <v>0.2374267578125</v>
       </c>
       <c r="C150">
-        <v>-0.09326171875</v>
+        <v>-0.189208984375</v>
       </c>
       <c r="D150">
-        <v>0.0045623779296875</v>
+        <v>-0.0205078125</v>
       </c>
       <c r="E150">
-        <v>-0.489990234375</v>
+        <v>-0.421142578125</v>
       </c>
       <c r="F150">
-        <v>-0.0003905296325683594</v>
+        <v>-0.1136474609375</v>
       </c>
       <c r="G150">
-        <v>-1</v>
+        <v>-0.9912109375</v>
       </c>
       <c r="H150">
-        <v>0.00243377685546875</v>
+        <v>0.0171661376953125</v>
       </c>
       <c r="I150">
-        <v>-0.0003905296325683594</v>
+        <v>-0.1136474609375</v>
       </c>
       <c r="J150">
-        <v>0.0771484375</v>
+        <v>0.242431640625</v>
       </c>
       <c r="K150">
-        <v>-1</v>
+        <v>0.8603515625</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6106,34 +6106,34 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0227813720703125</v>
+        <v>0.1939697265625</v>
       </c>
       <c r="C151">
-        <v>-0.12432861328125</v>
+        <v>-0.298095703125</v>
       </c>
       <c r="D151">
-        <v>0.016754150390625</v>
+        <v>-0.061553955078125</v>
       </c>
       <c r="E151">
-        <v>-0.0777587890625</v>
+        <v>0.4345703125</v>
       </c>
       <c r="F151">
-        <v>-0.0122528076171875</v>
+        <v>-0.0689697265625</v>
       </c>
       <c r="G151">
-        <v>-0.994140625</v>
+        <v>-0.98486328125</v>
       </c>
       <c r="H151">
-        <v>-0.0164947509765625</v>
+        <v>-0.002428054809570312</v>
       </c>
       <c r="I151">
-        <v>-0.0122528076171875</v>
+        <v>-0.0689697265625</v>
       </c>
       <c r="J151">
-        <v>0.0226898193359375</v>
+        <v>-0.072998046875</v>
       </c>
       <c r="K151">
-        <v>-1</v>
+        <v>-0.9677734375</v>
       </c>
     </row>
   </sheetData>
